--- a/Projects/model_documentation.xlsx
+++ b/Projects/model_documentation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77003CD-8FA2-47C2-9731-F3DD0588994D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC844F2A-8CBC-44A4-895E-C97A981AD22A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="10308" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="162">
   <si>
     <t>Date</t>
   </si>
@@ -515,6 +515,68 @@
   </si>
   <si>
     <t>Need to add a segment between the floodplain diversion segment and the downstream segment. And need to add a segment at the floodplain outflow to avoid deleting downstream inflow</t>
+  </si>
+  <si>
+    <t>After adding segments to have proper flow routing the run time was 50 min, CME = 0.42%, 55 min when printing output every timestep. It's odd that even just the first few periods have around 20-40 iterations when it previously was 6-7. Even spd 3, ts 1-3 have error of 24% because of too much water leaving the system (storage, stream leakage out), convergence criteria are met
+Although it took much longer, fixing the routing so water continued downstream avoided the under prediction that was happening in a lot of wells.</t>
+  </si>
+  <si>
+    <t>Water Budget</t>
+  </si>
+  <si>
+    <t>It seems like there is a very slight difference between the flopy zone budget and the modflow OWHM budget because the OHWM budget doesn't show error above 5%
+Example case: Stress period 3. For timestep 6 Stream leakage out is recorded as 54 in list file but 104 in flopy zonebudget, and for stream leakage in the discrepancy is about 500
+Is there any chance the sfr set up is causing issues like having sub timesteps?</t>
+  </si>
+  <si>
+    <t>Should try running with NWT instead to see if OWHM has a code issue. Although I'm assuming the list file is correct and flopy is at fault. Should also check by running zonebudget tool</t>
+  </si>
+  <si>
+    <t>Changed SFR numtim (number of substeps) from 5 to 1. Took 1 hr 7 min, CME was 0.2%. Now the error in the cbc file lines up with the list file, might have been an issue with numtim in SFR causing a split output or something, also the time step might have been so small it caused issues with sfr calculations
+I think the long run time was mostly due to the tighter convergence criteria 15 instead of 500 and 1000 iter instead of 500 -&gt; back to 31 minutes</t>
+  </si>
+  <si>
+    <t>At some point whne updating the GHB package I updated the distance from 5000m to 500m to represent the fact that the heads are at the model boundary, this allowed for much more groundwater outflow than before, no longer hardly any surface water return flows. Now it might be worth considering expanding the domain to reduce the outflow rate.
+Realization 000 ran in 9 min and it had the original distance of 5000 m. With lower conductivity we see more pumping, more outflow to the lake and much less flow to the GHB. Doesn't seem to be a big change in head contours or hydrographs</t>
+  </si>
+  <si>
+    <t>Small oneto-denier model with 1,000 m buffer from monitoring well boundary box and 100 m cells had 55 by 63 cells. Jumping to 200 m cells had 17 by 21 cells. And adding a 5,000m buffer increased dimensions to 57 by 61 cells. At the size the 2m DEM is insufficient at the upstream end (stops before HWY99) so I will need to either join the XS data with the HEC-RAS dem XS or switch to the 10m DEM.</t>
+  </si>
+  <si>
+    <t>Grid</t>
+  </si>
+  <si>
+    <t>Run model with stream starting short of up stream model boundary or reduce from 5,000 to 4,000 meter buffer at which the xs_all reaches the upper end of the grid</t>
+  </si>
+  <si>
+    <t>Complexities arise when dealing with 100 vs 200 for SFR cross-section spacing. It would be faster in terms of programming to keep with 100m and add maybe a 2,000m buffer instead of 4k to avoid higher computation cost. Model took 53 minutes</t>
+  </si>
+  <si>
+    <t>Review model budget with updating buffer distance and low distance GHB. Consider monthly changing GHB, with averaged SS. Took 55 min</t>
+  </si>
+  <si>
+    <t>Consider different GHB distance or expand model boundary
+Percent discrepancy in zone budget was all below 0.3% (largest peak) on a daily scale when GHB was 5000m</t>
+  </si>
+  <si>
+    <t>Percent discrepancy maxed at 1% in later timesteps, most likely issues with drying</t>
+  </si>
+  <si>
+    <t>Added recharge term and reduced run time to 28 min, homogeneous version only took 17 min (0.01% error in both)
+Increasing ET extinction depth  to 10m for all cells helped ensure heads declined sufficiently in the summer (41 min with 0.01%). Steady state still a little high so may need to up the ET rate under steady state or decrease recharge which is typically because assuming average recharge in steady state is going to over-estimate as more would runoff and antecedent conditions tend to be drier. Maybe running multiple years would improve this as the impact of steady state would decrease</t>
+  </si>
+  <si>
+    <t>Run multiple years to look at how seepage changes with time and the role of heterogeneity in wet vs dry years.</t>
+  </si>
+  <si>
+    <t>Multi year</t>
+  </si>
+  <si>
+    <t>The seasonal dynamics look good on all wells but variable in terms of match. MW 22,19,23, 13 are relatively tight. Initially MW 9,2,20,5,3,17,CP1 are offset then are closer to the observed. MW11,OA,7,14 are consistently offset.
+For the initial offset it is likely an issue with the amount of recharge and stream leakage in the steady state run being over weighted by 2017 wet year when the historical system is predominantly dry.</t>
+  </si>
+  <si>
+    <t>Ideally I should set steady state conditions on the previous years hydrology with some influence from previous years</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1323,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC7BF14-4A67-4FD5-AA17-58E63ADE83DF}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -1289,413 +1351,530 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
+        <v>44978</v>
+      </c>
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>44978</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>44977</v>
+      </c>
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>44977</v>
+      </c>
+      <c r="B5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>44977</v>
+      </c>
+      <c r="B6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>44976</v>
+      </c>
+      <c r="B7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>44973</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>44975</v>
+      </c>
+      <c r="B9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>44975</v>
+      </c>
+      <c r="B10" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>44973</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="12" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>44971</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B12" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>44971</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B13" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>44971</v>
-      </c>
-      <c r="B5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>44967</v>
-      </c>
-      <c r="B6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>44964</v>
-      </c>
-      <c r="B7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>44964</v>
-      </c>
-      <c r="B8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>44964</v>
-      </c>
-      <c r="B9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>44964</v>
-      </c>
-      <c r="B10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>44964</v>
-      </c>
-      <c r="B11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>44963</v>
-      </c>
-      <c r="B12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>44963</v>
-      </c>
-      <c r="B13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>44963</v>
+        <v>44971</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>44963</v>
+        <v>44967</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="B16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>44964</v>
+      </c>
+      <c r="B17" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>44959</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C17" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>44964</v>
+      </c>
+      <c r="B18" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>44958</v>
-      </c>
-      <c r="B18" t="s">
-        <v>89</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>44955</v>
+        <v>44964</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>44955</v>
+        <v>44964</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>44953</v>
+        <v>44963</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>44953</v>
+        <v>44963</v>
       </c>
       <c r="B22" t="s">
         <v>103</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>44963</v>
+      </c>
+      <c r="B23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>44963</v>
+      </c>
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>44955</v>
+      </c>
+      <c r="B28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>44955</v>
+      </c>
+      <c r="B29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>44953</v>
+      </c>
+      <c r="B30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>44953</v>
+      </c>
+      <c r="B31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>44952</v>
-      </c>
-      <c r="B23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>44952</v>
-      </c>
-      <c r="B24" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>44951</v>
-      </c>
-      <c r="B25" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>44949</v>
-      </c>
-      <c r="B26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>44949</v>
-      </c>
-      <c r="B27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>44949</v>
-      </c>
-      <c r="B28" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>44949</v>
-      </c>
-      <c r="B29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>44949</v>
-      </c>
-      <c r="B30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>44944</v>
-      </c>
-      <c r="B31" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
+        <v>44952</v>
+      </c>
+      <c r="B32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>44952</v>
+      </c>
+      <c r="B33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>44951</v>
+      </c>
+      <c r="B34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>44949</v>
+      </c>
+      <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>44949</v>
+      </c>
+      <c r="B36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>44949</v>
+      </c>
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>44949</v>
+      </c>
+      <c r="B38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>44949</v>
+      </c>
+      <c r="B39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
         <v>44944</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B41" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
         <v>44944</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B42" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+    <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
         <v>44944</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B43" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+    <row r="44" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
         <v>44944</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B44" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
         <v>44944</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B45" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+    <row r="46" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
         <v>44944</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B46" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+    <row r="47" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
         <v>44944</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B47" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>86</v>
       </c>
     </row>

--- a/Projects/model_documentation.xlsx
+++ b/Projects/model_documentation.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC844F2A-8CBC-44A4-895E-C97A981AD22A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0EBA8C-918B-41D9-BFA7-D82C5AD3B226}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="10308" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="10308" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="historical_calibration" sheetId="5" r:id="rId1"/>
     <sheet name="setback_distance" sheetId="1" r:id="rId2"/>
     <sheet name="Stream_seepage" sheetId="6" r:id="rId3"/>
-    <sheet name="economic_model" sheetId="2" r:id="rId4"/>
-    <sheet name="temperature" sheetId="4" r:id="rId5"/>
-    <sheet name="Advice notes" sheetId="3" r:id="rId6"/>
+    <sheet name="Levee_removal" sheetId="8" r:id="rId4"/>
+    <sheet name="model_development" sheetId="7" r:id="rId5"/>
+    <sheet name="economic_model" sheetId="2" r:id="rId6"/>
+    <sheet name="temperature" sheetId="4" r:id="rId7"/>
+    <sheet name="Advice notes" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="183">
   <si>
     <t>Date</t>
   </si>
@@ -577,6 +579,84 @@
   </si>
   <si>
     <t>Ideally I should set steady state conditions on the previous years hydrology with some influence from previous years</t>
+  </si>
+  <si>
+    <t>UZF</t>
+  </si>
+  <si>
+    <t>I should update the pre-processed evapotranspiration and precipitation data to be saved in a binary format with h5py to speed up loading when building models later. Loading the text files for each year takes a long time</t>
+  </si>
+  <si>
+    <t>Setting up new steady state:
+The median for 2018 is 1.25 times larger than the median for WY2015-2018. The meidan for WY2011-2014 is only 0.93 times smaller than WY2015-2018 so not to significant
+The rainfall from WY2011-2014 is 1/40 the rainfal from WY2015-2018
+Updated RCH, EVT, WEL, LAK package with new ET and rainfall. Set steady state GHB to just use heads in fall 2014 for steady state as well.
+Playing around with SFR package steady state flow, I reduced the median flow by 3/8 to get heads in the monitoring wells that are on average where they should be. I also added back the sand/gravel 1/10 reduction in sfr and lake for clogging. 1 hr 49 min, 0.12% error</t>
+  </si>
+  <si>
+    <t>The multi year run may also have been using a 5,000 m distance for the GHB which may signifcantly impact steady state by allowing more water in or out. Run time took 2 hr  and 16 min (CME = 0.89%)
+The NSE went from 0.39 to 0.46, R2 from .13 to .38 , and hydrograph fit did look slightly better. 82/8676 steps hit mxiter (500)</t>
+  </si>
+  <si>
+    <t>Updated code to write out the parallel input files, biggest updates to GHB with new set up. Realization ran fine 2 hr 30 min with error in reasonable range, less than 1%. Used sublime text to run parallel realizations</t>
+  </si>
+  <si>
+    <t>Realizations</t>
+  </si>
+  <si>
+    <t>Using the historical model for Oneto-Denier I can select the 10 realizations with the best matching NSE/RMSE to simulated Oneto-Denier if levee setback had not occurred.</t>
+  </si>
+  <si>
+    <t>Updated so everything uses hdf5</t>
+  </si>
+  <si>
+    <t>Update or copy the parallel code to write the 10 best realizations but without the floodplain connection.</t>
+  </si>
+  <si>
+    <t>Takes 32.6 hours to run 100 realizations in parallel
+Potential issue with sfr strhc1 is that dividing sand and gravel by 10 to assume clogging makes them essentially HK of sandy mud so we have 34.5, 12.9, 21 the 0.56 VKA for gravel to mud. But realisticially it is the geology below that makes the bigger impact so this may not matter. But this means that we should not group by strhc1 but the geology of the cell below</t>
+  </si>
+  <si>
+    <t>Be careful when post-processing data stream data by reach, column because grid_sfr will have two cells with multiplle segments where they are used for connecting the floodplain. Instead join by segment, reach</t>
+  </si>
+  <si>
+    <t>Post-processing</t>
+  </si>
+  <si>
+    <t>Model refinement</t>
+  </si>
+  <si>
+    <t>Found consistent error above 5% for 4 year run in 2014 and 2015 dry season when too much pumping causes conflict with GHB likely. Went through and further id'd land that would be fallow based on field experience with satellite (where riparian/drainages)
+Updating pumping reduced it by 15% but the error remained ( too much outflow) GHB outflow increased to compensate. It seems like GHB is too controlling on the system or perhaps SFR steady state flow needs more tweaking?
+I re-ran the entire Jupyter Notebook for oneto_denier_2014_2018 after updating it to 1 step per period and found starting at the steady state error was only 1%, there might have been an error introduced with conflicting conductivity values in packages. Maybe when setting up re_connection run? (cbc file was smaller 1.6 instead of 9GB)
+Model does run quicker with less steps, 31 min total, but checking zone budget shows error of 7-8% during fall 2015, 2016
+Tried setting GHB distance to 1000m from 500 but still had around 5% error in dry periods</t>
+  </si>
+  <si>
+    <t>When the model hits later summer streamflow goes to near zero and if we assume no other forms of recharge then there is only storage to draw from, and it seems that that causes the most issues in percent discrepancy. I wonder if the regional groundwater elevations are lower than they should be?
+Fixing this issue in the GHB package with heads below cell bottoms (setting them to the midpoint elevation of the cell) and using 5000 m seems to have fixed convergence issues (maximum timestep/period error is now 0.16 percent), only takes 16 min. One stress period in late 2016 has 1% error but that is small error and a very short period likely due to rewetting (0.2 NSE)
+Using 500 m distance gives run time of 29 min, but 12 steps with mxiter and 0.27% error, and peak model errors of 3% during dry periods. (0.4 NSE)
+Using 1000 m distance gives 27 min, 6 steps with mxiter, 0.10% cme, peak model errors of 1.5% (0.34 NSE), slight adjustment to ghb elev (add half thickness) decreased max error to 1% NSE from 0.34 to 0.33</t>
+  </si>
+  <si>
+    <t>I'm going to settle with the 1000 m distance as it balances model convergence (1% max error) with matching realizations (NSE = 0.33) and run time is about 1/4 of previous</t>
+  </si>
+  <si>
+    <t>Also in aggregation, I am not using subdaily data so I might as well aggregate to 1 timestep per period to see the effect. 100 runs took 6.5 hours</t>
+  </si>
+  <si>
+    <t>Figures</t>
+  </si>
+  <si>
+    <t>Finally set up a way to aggregate by segment or date then save that output to save time setting up figures
+Plotting a time series of seepage grouped by facies is really hard to distinguish individual lines, but that works when aggregating across</t>
+  </si>
+  <si>
+    <t>When plotting days with flow I realized there was discontinuity at the end of the lake where the streamflow segment taking the return flow had a lower stage than the lake minimum so it was always taking flow even in the summer when it should be dry. Run time 28 min (0.07% CME)
+Reading the NWT documentation I found that several updates were made to existing packages to ensure sinks don't draw water from dry cells that are considered active but actually don't have water (WEL package cells will be deactivated if in a dry cell). BUT the EVT package was not updated so it will continue to draw water from dry cells which causes budget errors, ideally I should update to the UZF package which will apropriately function by not taking water when a cell is dry.</t>
+  </si>
+  <si>
+    <t>flopy seems to have issue printing out uzf properly as it prints space before nuzf</t>
   </si>
 </sst>
 </file>
@@ -599,12 +679,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -619,7 +705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -635,6 +721,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -920,7 +1009,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1323,10 +1412,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC7BF14-4A67-4FD5-AA17-58E63ADE83DF}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1351,530 +1440,637 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>44985</v>
+      </c>
+      <c r="B4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>44984</v>
+      </c>
+      <c r="B5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>44984</v>
+      </c>
+      <c r="B6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>44984</v>
+      </c>
+      <c r="B7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>44984</v>
+      </c>
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>44980</v>
+      </c>
+      <c r="B9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>44979</v>
+      </c>
+      <c r="B10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>44979</v>
+      </c>
+      <c r="B11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>44978</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B12" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="13" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>44978</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B13" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>44977</v>
-      </c>
-      <c r="B4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>44977</v>
-      </c>
-      <c r="B5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>44977</v>
-      </c>
-      <c r="B6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>44976</v>
-      </c>
-      <c r="B7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>44973</v>
-      </c>
-      <c r="B8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>44975</v>
-      </c>
-      <c r="B9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>44975</v>
-      </c>
-      <c r="B10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>44973</v>
-      </c>
-      <c r="B11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>44971</v>
-      </c>
-      <c r="B12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>44971</v>
-      </c>
-      <c r="B13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>44971</v>
       </c>
       <c r="B14" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>44977</v>
+      </c>
+      <c r="B15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>44977</v>
+      </c>
+      <c r="B16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>44976</v>
+      </c>
+      <c r="B17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>44973</v>
+      </c>
+      <c r="B18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>44975</v>
+      </c>
+      <c r="B19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>44975</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>44973</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>44971</v>
+      </c>
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>44971</v>
+      </c>
+      <c r="B23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>44971</v>
+      </c>
+      <c r="B24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+    <row r="25" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>44967</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B25" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>44964</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B26" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+    <row r="27" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>44964</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B27" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+    <row r="28" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>44964</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B28" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>44964</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B29" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+    <row r="30" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>44964</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B30" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
         <v>44963</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B31" t="s">
         <v>127</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+    <row r="32" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
         <v>44963</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B32" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+    <row r="33" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>44963</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B33" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>44963</v>
-      </c>
-      <c r="B24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>44959</v>
-      </c>
-      <c r="B25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>44959</v>
-      </c>
-      <c r="B26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>44958</v>
-      </c>
-      <c r="B27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>44955</v>
-      </c>
-      <c r="B28" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>44955</v>
-      </c>
-      <c r="B29" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>44953</v>
-      </c>
-      <c r="B30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>44953</v>
-      </c>
-      <c r="B31" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>44952</v>
-      </c>
-      <c r="B32" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>44952</v>
-      </c>
-      <c r="B33" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>44951</v>
+        <v>44963</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>44949</v>
+        <v>44959</v>
       </c>
       <c r="B35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B37" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>44949</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="C37" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>44955</v>
+      </c>
+      <c r="B38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>44955</v>
+      </c>
+      <c r="B39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>44953</v>
+      </c>
+      <c r="B40" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>44949</v>
-      </c>
-      <c r="B37" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>44949</v>
-      </c>
-      <c r="B38" t="s">
-        <v>103</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>44949</v>
-      </c>
-      <c r="B39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>44944</v>
-      </c>
-      <c r="B40" t="s">
-        <v>99</v>
-      </c>
       <c r="C40" s="1" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>44944</v>
+        <v>44953</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>44944</v>
+        <v>44952</v>
       </c>
       <c r="B42" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>44944</v>
+        <v>44952</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>44944</v>
+        <v>44951</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>44944</v>
+        <v>44949</v>
       </c>
       <c r="B45" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>44949</v>
+      </c>
+      <c r="B46" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>44949</v>
+      </c>
+      <c r="B47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>44949</v>
+      </c>
+      <c r="B48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>44949</v>
+      </c>
+      <c r="B49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B52" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B53" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B54" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B55" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+    <row r="56" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
         <v>44944</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B56" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+    <row r="57" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
         <v>44944</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B57" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1884,6 +2080,118 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9157488-9F56-454D-A4D5-1DAD0DE24A20}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="23.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="68.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>44981</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>44981</v>
+      </c>
+      <c r="B3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D471C2-6142-4E20-AF98-9F82EA310400}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="3" max="3" width="64.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>44979</v>
+      </c>
+      <c r="B2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FE6526-BEC7-4E89-B206-5D56123EA940}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -2080,7 +2388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6EC10F-D20C-475E-8D59-543DC38745A3}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2130,7 +2438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3E8C59-64A4-4400-9DB3-65D0E5C956A2}">
   <dimension ref="A1:B6"/>
   <sheetViews>

--- a/Projects/model_documentation.xlsx
+++ b/Projects/model_documentation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0EBA8C-918B-41D9-BFA7-D82C5AD3B226}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25BC13A-8F1D-4F08-B8D1-211191E74CDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="10308" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="10305" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="historical_calibration" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="187">
   <si>
     <t>Date</t>
   </si>
@@ -653,10 +653,29 @@
   </si>
   <si>
     <t>When plotting days with flow I realized there was discontinuity at the end of the lake where the streamflow segment taking the return flow had a lower stage than the lake minimum so it was always taking flow even in the summer when it should be dry. Run time 28 min (0.07% CME)
-Reading the NWT documentation I found that several updates were made to existing packages to ensure sinks don't draw water from dry cells that are considered active but actually don't have water (WEL package cells will be deactivated if in a dry cell). BUT the EVT package was not updated so it will continue to draw water from dry cells which causes budget errors, ideally I should update to the UZF package which will apropriately function by not taking water when a cell is dry.</t>
-  </si>
-  <si>
-    <t>flopy seems to have issue printing out uzf properly as it prints space before nuzf</t>
+Reading the NWT documentation I found that several updates were made to existing packages to ensure sinks don't draw water from dry cells that are considered active but actually don't have water (WEL package cells will be deactivated if in a dry cell). BUT the EVT package was not updated so it will continue to draw water from dry cells which causes budget errors, ideally I should update to the UZF package which will apropriately function by not taking water when a cell is dry.
+Removing the EVT package didn't change the error in the model so it must not be the issue, also I spent some time trying to get the uzf package to work but it didn't seem to run when nuztop was 3 and iuzfopt was 0.</t>
+  </si>
+  <si>
+    <t>Quick test: remove pumping on outermost cells where GHB is to see if that reduces conflict
+-&gt; CME was 0.04%, max error during summer periods was only 0.6% (NSE went down by 0.01)
+Next step: remove pumping in first few cells near the boundary and increasing GHB
+With pumping removed in boundary only and GHB at 500m, CME was 0.1% (NSE 0.38), max daily error of 1.5%</t>
+  </si>
+  <si>
+    <t>Should I run a check on 100 realizations for CME or error?</t>
+  </si>
+  <si>
+    <t>The sfr tab files was saving the time as 1 day for all steps even though stress period zero should have only been one second. 
+If flopy has a pumping period with no values it correctly writes outpumping as zero. There is very little impact on applied water due to rainfall.
+Slight issue, I realized that when I set the ext depth to 10m for all EVT that accidentally activated all cells in the domain as potential GDE.</t>
+  </si>
+  <si>
+    <t>Oneto Ag is not representative of the shallow monitoring network and the total depth is highly uncertain so it should be removed from modeling. Or at least removed in post-processing, NSE = 0.34 and NSE = 0.40 without OnetoAg for test run. The mean NSE went from 0.38 to 0.43  across all realization</t>
+  </si>
+  <si>
+    <t>Fixing SFR tab file still had CME = 0.1% (32 min, NSE = 0.39), 13 steps with mxiter
+Fixing EVT: CME = 0.09% (27 min, NSE=0.34), 5 steps with mxiter</t>
   </si>
 </sst>
 </file>
@@ -1012,15 +1031,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="4" customWidth="1"/>
-    <col min="3" max="4" width="56.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="14.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="4" customWidth="1"/>
+    <col min="3" max="4" width="56.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1037,10 +1056,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>44867</v>
       </c>
@@ -1051,7 +1070,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>44867</v>
       </c>
@@ -1065,7 +1084,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>44866</v>
       </c>
@@ -1079,7 +1098,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>44725</v>
       </c>
@@ -1103,15 +1122,15 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="83.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="83.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1128,7 +1147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44930</v>
       </c>
@@ -1139,7 +1158,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44930</v>
       </c>
@@ -1150,7 +1169,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44919</v>
       </c>
@@ -1161,7 +1180,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44916</v>
       </c>
@@ -1175,7 +1194,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44900</v>
       </c>
@@ -1186,7 +1205,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44900</v>
       </c>
@@ -1200,7 +1219,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44880</v>
       </c>
@@ -1211,7 +1230,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44875</v>
       </c>
@@ -1222,7 +1241,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44860</v>
       </c>
@@ -1239,7 +1258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44847</v>
       </c>
@@ -1250,7 +1269,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44841</v>
       </c>
@@ -1261,7 +1280,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44831</v>
       </c>
@@ -1278,7 +1297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44826</v>
       </c>
@@ -1289,7 +1308,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44826</v>
       </c>
@@ -1300,7 +1319,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44826</v>
       </c>
@@ -1311,7 +1330,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44812</v>
       </c>
@@ -1322,7 +1341,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44777</v>
       </c>
@@ -1339,7 +1358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44767</v>
       </c>
@@ -1356,7 +1375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44764</v>
       </c>
@@ -1370,7 +1389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44764</v>
       </c>
@@ -1387,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44763</v>
       </c>
@@ -1412,21 +1431,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC7BF14-4A67-4FD5-AA17-58E63ADE83DF}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="94.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="47.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="94.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1440,322 +1459,337 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44991</v>
+      </c>
+      <c r="B2" t="s">
+        <v>174</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44991</v>
+      </c>
       <c r="B3" t="s">
         <v>174</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>44985</v>
+        <v>44988</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>44984</v>
+        <v>44988</v>
       </c>
       <c r="B5" t="s">
         <v>174</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44984</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44984</v>
       </c>
       <c r="B8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44984</v>
+      </c>
+      <c r="B9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44984</v>
+      </c>
+      <c r="B10" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>44980</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>44979</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+    <row r="13" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>44979</v>
-      </c>
-      <c r="B11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>44978</v>
-      </c>
-      <c r="B12" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>44978</v>
       </c>
       <c r="B13" t="s">
         <v>159</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>44978</v>
+      </c>
+      <c r="B14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>44978</v>
+      </c>
+      <c r="B15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>44977</v>
-      </c>
-      <c r="B14" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>44977</v>
-      </c>
-      <c r="B15" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44977</v>
       </c>
       <c r="B16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>44977</v>
+      </c>
+      <c r="B17" t="s">
         <v>151</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>44977</v>
+      </c>
+      <c r="B18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>44976</v>
-      </c>
-      <c r="B17" t="s">
-        <v>145</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>44973</v>
-      </c>
-      <c r="B18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>44975</v>
       </c>
       <c r="B19" t="s">
         <v>145</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>44973</v>
+      </c>
+      <c r="B20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>44975</v>
+      </c>
+      <c r="B21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+    <row r="22" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>44975</v>
-      </c>
-      <c r="B20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>44973</v>
-      </c>
-      <c r="B21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>44971</v>
       </c>
       <c r="B22" t="s">
         <v>89</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>44971</v>
+        <v>44973</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44971</v>
       </c>
       <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>44971</v>
+      </c>
+      <c r="B25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>44971</v>
+      </c>
+      <c r="B26" t="s">
         <v>135</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+    <row r="27" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>44967</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>44964</v>
-      </c>
-      <c r="B26" t="s">
-        <v>134</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>44964</v>
-      </c>
-      <c r="B27" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44964</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44964</v>
       </c>
@@ -1763,208 +1797,208 @@
         <v>122</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44964</v>
       </c>
       <c r="B30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>44964</v>
+      </c>
+      <c r="B31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>44964</v>
+      </c>
+      <c r="B32" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>44963</v>
-      </c>
-      <c r="B31" t="s">
-        <v>127</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>44963</v>
-      </c>
-      <c r="B32" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44963</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44963</v>
       </c>
       <c r="B34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>44963</v>
+      </c>
+      <c r="B35" t="s">
         <v>120</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>44959</v>
-      </c>
-      <c r="B35" t="s">
-        <v>122</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>44959</v>
+        <v>44963</v>
       </c>
       <c r="B36" t="s">
         <v>120</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+    <row r="39" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <v>44958</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+    <row r="40" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
         <v>44955</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+    <row r="41" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
         <v>44955</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+    <row r="42" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
         <v>44953</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B42" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
         <v>44953</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
         <v>44952</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+    <row r="45" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
         <v>44952</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+    <row r="46" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
         <v>44951</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <v>44949</v>
-      </c>
-      <c r="B45" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
-        <v>44949</v>
-      </c>
-      <c r="B46" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44949</v>
       </c>
       <c r="B47" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>44949</v>
       </c>
@@ -1972,105 +2006,127 @@
         <v>103</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>44949</v>
       </c>
       <c r="B49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>44949</v>
+      </c>
+      <c r="B50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>44949</v>
+      </c>
+      <c r="B51" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
-        <v>44944</v>
-      </c>
-      <c r="B50" t="s">
-        <v>99</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
-        <v>44944</v>
-      </c>
-      <c r="B51" t="s">
-        <v>96</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>44944</v>
       </c>
       <c r="B52" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>44944</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>44944</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>44944</v>
       </c>
       <c r="B55" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>44944</v>
       </c>
       <c r="B56" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>44944</v>
       </c>
       <c r="B57" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B59" t="s">
         <v>87</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2087,13 +2143,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="68.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="68.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2107,7 +2163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44981</v>
       </c>
@@ -2119,7 +2175,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44981</v>
       </c>
@@ -2144,15 +2200,15 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="3" max="3" width="64.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="64.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2169,7 +2225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44979</v>
       </c>
@@ -2199,16 +2255,16 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2225,7 +2281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44881</v>
       </c>
@@ -2239,7 +2295,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44881</v>
       </c>
@@ -2253,7 +2309,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44792</v>
       </c>
@@ -2264,7 +2320,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44767</v>
       </c>
@@ -2281,7 +2337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44755</v>
       </c>
@@ -2298,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44755</v>
       </c>
@@ -2315,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44755</v>
       </c>
@@ -2332,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44755</v>
       </c>
@@ -2349,7 +2405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44755</v>
       </c>
@@ -2366,7 +2422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44755</v>
       </c>
@@ -2396,15 +2452,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="45.5546875" customWidth="1"/>
-    <col min="4" max="4" width="29.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2421,7 +2477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44764</v>
       </c>
@@ -2446,9 +2502,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -2456,7 +2512,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -2464,7 +2520,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>85</v>
       </c>

--- a/Projects/model_documentation.xlsx
+++ b/Projects/model_documentation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25BC13A-8F1D-4F08-B8D1-211191E74CDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C4E4AC-59E5-4615-812A-9E1088079043}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="10305" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="10308" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="historical_calibration" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="193">
   <si>
     <t>Date</t>
   </si>
@@ -676,6 +676,29 @@
   <si>
     <t>Fixing SFR tab file still had CME = 0.1% (32 min, NSE = 0.39), 13 steps with mxiter
 Fixing EVT: CME = 0.09% (27 min, NSE=0.34), 5 steps with mxiter</t>
+  </si>
+  <si>
+    <t>Removing the extra ET/pumping makes it so not enough drawdown happens in 2017 in some realizatoins</t>
+  </si>
+  <si>
+    <t>TPROGs</t>
+  </si>
+  <si>
+    <t>I realized that for the steady state conditions I had been aggregating the GHB by row,column so there was actually only one cell in each row,col allowing subsurface outflow which would probably change the steady state quite a bit.
+Also switching grid discretization to include layers matching TPROGs caused an issue with the LAK package assigning a different minimum lake elevation (5m when using very thin layers for extra tprogs) and 999,999 when using full layers for tprogs. Fixing the layer for the lakarr and setting the outseg elevation as the model top minimum instead of the local dem minimum made sure that the outflow would be appropriate.</t>
+  </si>
+  <si>
+    <t>After fixing model layering, the run took 48 min, 10 mxiter, CME=0.14%. ** NSE = 0.52 instead of 0.404, RMSE = 2.22 instead of 2.8 and R2 went from 0.02 to 0.4. Fixing the connectivity made it so the aquifer responds appropriately. I still need to check how this changes if we only upscale 1 times. Max water budget error was 1% in summer, but we saw more summer time error in 2017,2018 than before</t>
+  </si>
+  <si>
+    <t>Vertical Refinement</t>
+  </si>
+  <si>
+    <t>Tried out 4x upscaling (2m thickness). Took 1 hr 50 instead of 48 min. 11 mxiter, CME=0.13%. R2 =0.32, RMSE=2.4, NSE=0.47. Not huge changes and seepage plots looked generally the same. Water budget error was similarly around 1%
+-&gt; for now keep working with 8x upscaling but look for ways to reduce runtime
+- I realized that the bas package actually hadn't set any cells above the dem inactive, reduced runtime to 46 min
+- I noticed the lake package had constant precip/ET that caused water budget errors when lake was dry, reduced runtime to 44 min and no more crazy lake error
+- also the pumping definitely causes the small water budget error, removed pumping where the well layers are below the model bottom, runtime was 29 min, but NSE dropped to 0.42 because not enough drawdown, error was still 1% in dry days with pumping</t>
   </si>
 </sst>
 </file>
@@ -1031,15 +1054,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="4" customWidth="1"/>
-    <col min="3" max="4" width="56.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="14.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="56.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1056,10 +1079,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>44867</v>
       </c>
@@ -1070,7 +1093,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>44867</v>
       </c>
@@ -1084,7 +1107,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>44866</v>
       </c>
@@ -1098,7 +1121,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>44725</v>
       </c>
@@ -1122,15 +1145,15 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="83.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="83.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1147,7 +1170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44930</v>
       </c>
@@ -1158,7 +1181,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44930</v>
       </c>
@@ -1169,7 +1192,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44919</v>
       </c>
@@ -1180,7 +1203,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44916</v>
       </c>
@@ -1194,7 +1217,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44900</v>
       </c>
@@ -1205,7 +1228,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44900</v>
       </c>
@@ -1219,7 +1242,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44880</v>
       </c>
@@ -1230,7 +1253,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44875</v>
       </c>
@@ -1241,7 +1264,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44860</v>
       </c>
@@ -1258,7 +1281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44847</v>
       </c>
@@ -1269,7 +1292,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44841</v>
       </c>
@@ -1280,7 +1303,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44831</v>
       </c>
@@ -1297,7 +1320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44826</v>
       </c>
@@ -1308,7 +1331,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44826</v>
       </c>
@@ -1319,7 +1342,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44826</v>
       </c>
@@ -1330,7 +1353,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44812</v>
       </c>
@@ -1341,7 +1364,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44777</v>
       </c>
@@ -1358,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44767</v>
       </c>
@@ -1375,7 +1398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44764</v>
       </c>
@@ -1389,7 +1412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44764</v>
       </c>
@@ -1406,7 +1429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44763</v>
       </c>
@@ -1431,21 +1454,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC7BF14-4A67-4FD5-AA17-58E63ADE83DF}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="94.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="94.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1459,674 +1482,715 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>45000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>44999</v>
+      </c>
+      <c r="B4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>44991</v>
-      </c>
-      <c r="B2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>44991</v>
-      </c>
-      <c r="B3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>44988</v>
-      </c>
-      <c r="B4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>44988</v>
       </c>
       <c r="B5" t="s">
         <v>174</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>44985</v>
+        <v>44991</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>44984</v>
+        <v>44991</v>
       </c>
       <c r="B7" t="s">
         <v>174</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>44984</v>
+        <v>44988</v>
       </c>
       <c r="B8" t="s">
         <v>174</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>44988</v>
+      </c>
+      <c r="B9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>44985</v>
+      </c>
+      <c r="B10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>44984</v>
+      </c>
+      <c r="B11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>44984</v>
+      </c>
+      <c r="B12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>44984</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B13" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="14" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>44984</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B14" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>44980</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B15" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="16" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>44979</v>
-      </c>
-      <c r="B12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>44979</v>
-      </c>
-      <c r="B13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>44978</v>
-      </c>
-      <c r="B14" t="s">
-        <v>159</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>44978</v>
-      </c>
-      <c r="B15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>44977</v>
       </c>
       <c r="B16" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
+        <v>44979</v>
+      </c>
+      <c r="B17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>44978</v>
+      </c>
+      <c r="B18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>44978</v>
+      </c>
+      <c r="B19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>44977</v>
-      </c>
-      <c r="B17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>44977</v>
-      </c>
-      <c r="B18" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>44976</v>
-      </c>
-      <c r="B19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>44973</v>
       </c>
       <c r="B20" t="s">
         <v>135</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>44977</v>
+      </c>
+      <c r="B21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>44977</v>
+      </c>
+      <c r="B22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>44976</v>
+      </c>
+      <c r="B23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>44973</v>
+      </c>
+      <c r="B24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="25" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>44975</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B25" t="s">
         <v>145</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="26" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>44975</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B26" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="27" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>44973</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B27" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="28" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>44971</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B28" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>44971</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B29" t="s">
         <v>139</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="30" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>44971</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B30" t="s">
         <v>135</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="300" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="31" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
         <v>44967</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B31" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>44964</v>
-      </c>
-      <c r="B28" t="s">
-        <v>134</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>44964</v>
-      </c>
-      <c r="B29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>44964</v>
-      </c>
-      <c r="B30" t="s">
-        <v>120</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>44964</v>
-      </c>
-      <c r="B31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>44964</v>
       </c>
       <c r="B32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>44964</v>
+      </c>
+      <c r="B33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>44964</v>
+      </c>
+      <c r="B34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>44964</v>
+      </c>
+      <c r="B35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>44964</v>
+      </c>
+      <c r="B36" t="s">
         <v>129</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
         <v>44963</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B37" t="s">
         <v>127</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+    <row r="38" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
         <v>44963</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B38" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="39" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
         <v>44963</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B39" t="s">
         <v>120</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+    <row r="40" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
         <v>44963</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B40" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+    <row r="41" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
         <v>44959</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B41" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+    <row r="42" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
         <v>44959</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B42" t="s">
         <v>120</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+    <row r="43" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
         <v>44958</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B43" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+    <row r="44" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
         <v>44955</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B44" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+    <row r="45" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
         <v>44955</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B45" t="s">
         <v>115</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+    <row r="46" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
         <v>44953</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B46" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+    <row r="47" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
         <v>44953</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B47" t="s">
         <v>103</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+    <row r="48" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
         <v>44952</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B48" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+    <row r="49" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
         <v>44952</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B49" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+    <row r="50" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
         <v>44951</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B50" t="s">
         <v>108</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>44949</v>
-      </c>
-      <c r="B47" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>44949</v>
-      </c>
-      <c r="B48" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>44949</v>
-      </c>
-      <c r="B49" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>44949</v>
-      </c>
-      <c r="B50" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>44949</v>
       </c>
       <c r="B51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>44949</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>44949</v>
+      </c>
+      <c r="B53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>44949</v>
+      </c>
+      <c r="B54" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>44949</v>
+      </c>
+      <c r="B55" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>44944</v>
-      </c>
-      <c r="B52" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>44944</v>
-      </c>
-      <c r="B53" t="s">
-        <v>96</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>44944</v>
-      </c>
-      <c r="B54" t="s">
-        <v>96</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>44944</v>
-      </c>
-      <c r="B55" t="s">
-        <v>94</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>44944</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>44944</v>
       </c>
       <c r="B57" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>44944</v>
       </c>
       <c r="B58" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>44944</v>
       </c>
       <c r="B59" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B61" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B62" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B63" t="s">
         <v>87</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2143,13 +2207,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="68.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="68.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2163,7 +2227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44981</v>
       </c>
@@ -2175,7 +2239,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44981</v>
       </c>
@@ -2200,15 +2264,15 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="64.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="64.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2225,7 +2289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44979</v>
       </c>
@@ -2255,16 +2319,16 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2281,7 +2345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44881</v>
       </c>
@@ -2295,7 +2359,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44881</v>
       </c>
@@ -2309,7 +2373,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44792</v>
       </c>
@@ -2320,7 +2384,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44767</v>
       </c>
@@ -2337,7 +2401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44755</v>
       </c>
@@ -2354,7 +2418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44755</v>
       </c>
@@ -2371,7 +2435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44755</v>
       </c>
@@ -2388,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44755</v>
       </c>
@@ -2405,7 +2469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44755</v>
       </c>
@@ -2422,7 +2486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44755</v>
       </c>
@@ -2452,15 +2516,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="45.5546875" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2477,7 +2541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44764</v>
       </c>
@@ -2502,9 +2566,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -2512,7 +2576,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -2520,7 +2584,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>85</v>
       </c>

--- a/Projects/model_documentation.xlsx
+++ b/Projects/model_documentation.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20396"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C4E4AC-59E5-4615-812A-9E1088079043}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37ADAACE-BB1C-40F5-8B6D-DE067312FE9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="10308" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="196">
   <si>
     <t>Date</t>
   </si>
@@ -699,6 +699,18 @@
 - I realized that the bas package actually hadn't set any cells above the dem inactive, reduced runtime to 46 min
 - I noticed the lake package had constant precip/ET that caused water budget errors when lake was dry, reduced runtime to 44 min and no more crazy lake error
 - also the pumping definitely causes the small water budget error, removed pumping where the well layers are below the model bottom, runtime was 29 min, but NSE dropped to 0.42 because not enough drawdown, error was still 1% in dry days with pumping</t>
+  </si>
+  <si>
+    <t>Rerun with 20m (10 layers unconfined)</t>
+  </si>
+  <si>
+    <t>With 4x upscaling and the adjustments made to the 8x model, the run time was 1 hr 18 min, 7 mxiter, 0.13% CME, NSE=0.41
+Taking a closer look at the water budget it is clear that the increased connectivity and higher conductivity led to much higher rates of groundwater outflow through the GHB. 
+100 parallel runs of 4x upscale took 17 hours - except had issue where only top 10 m were unconfined (5 layers) instead of 20 m(10 layers). updated version took 15 hours
+The same large increase in GHB outflow occured in the 8x upscaling showing that it really is the dominant forcing in a connected environment</t>
+  </si>
+  <si>
+    <t>With the proper connectivity set up, well pumping goes from 100,000 to 10,000 m3/d, 25,000 to 10,000 m3/d. GHB acually only decreases a little bit, less than I would expect.</t>
   </si>
 </sst>
 </file>
@@ -1454,10 +1466,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC7BF14-4A67-4FD5-AA17-58E63ADE83DF}">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1482,59 +1494,65 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>45008</v>
+      </c>
       <c r="B2" t="s">
         <v>191</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>45002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>45001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>45000</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>188</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="6" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>44999</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>188</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>44991</v>
-      </c>
-      <c r="B5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>44991</v>
-      </c>
-      <c r="B6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44991</v>
       </c>
@@ -1542,340 +1560,340 @@
         <v>174</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="B8" t="s">
         <v>174</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="B9" t="s">
         <v>174</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>44985</v>
+        <v>44988</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>44984</v>
+        <v>44988</v>
       </c>
       <c r="B11" t="s">
         <v>174</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B12" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44984</v>
       </c>
       <c r="B13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44984</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
+        <v>44984</v>
+      </c>
+      <c r="B15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>44984</v>
+      </c>
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>44980</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+    <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>44979</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+    <row r="19" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>44979</v>
-      </c>
-      <c r="B17" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>44978</v>
-      </c>
-      <c r="B18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>44978</v>
       </c>
       <c r="B19" t="s">
         <v>159</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>44978</v>
+      </c>
+      <c r="B20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>44978</v>
+      </c>
+      <c r="B21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>44977</v>
-      </c>
-      <c r="B20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>44977</v>
-      </c>
-      <c r="B21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44977</v>
       </c>
       <c r="B22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>44977</v>
+      </c>
+      <c r="B23" t="s">
         <v>151</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>44977</v>
+      </c>
+      <c r="B24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>44976</v>
-      </c>
-      <c r="B23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>44973</v>
-      </c>
-      <c r="B24" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>44975</v>
+        <v>44976</v>
       </c>
       <c r="B25" t="s">
         <v>145</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>44973</v>
+      </c>
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>44975</v>
+      </c>
+      <c r="B27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+    <row r="28" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>44975</v>
-      </c>
-      <c r="B26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>44973</v>
-      </c>
-      <c r="B27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>44971</v>
       </c>
       <c r="B28" t="s">
         <v>89</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>44971</v>
+        <v>44973</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>44971</v>
       </c>
       <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>44971</v>
+      </c>
+      <c r="B31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>44971</v>
+      </c>
+      <c r="B32" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+    <row r="33" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>44967</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>138</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>44964</v>
-      </c>
-      <c r="B32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>44964</v>
-      </c>
-      <c r="B33" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>44964</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>44964</v>
       </c>
@@ -1883,194 +1901,194 @@
         <v>122</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>44964</v>
       </c>
       <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>44964</v>
+      </c>
+      <c r="B37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>44964</v>
+      </c>
+      <c r="B38" t="s">
         <v>129</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>44963</v>
-      </c>
-      <c r="B37" t="s">
-        <v>127</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>44963</v>
-      </c>
-      <c r="B38" t="s">
-        <v>103</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>44963</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>44963</v>
       </c>
       <c r="B40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>44963</v>
+      </c>
+      <c r="B41" t="s">
         <v>120</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>44959</v>
-      </c>
-      <c r="B41" t="s">
-        <v>122</v>
-      </c>
       <c r="C41" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>44959</v>
+        <v>44963</v>
       </c>
       <c r="B42" t="s">
         <v>120</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B44" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+    <row r="45" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
         <v>44958</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+    <row r="46" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
         <v>44955</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" t="s">
         <v>117</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+    <row r="47" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
         <v>44955</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B47" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+    <row r="48" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
         <v>44953</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B48" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>44953</v>
-      </c>
-      <c r="B47" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <v>44952</v>
-      </c>
-      <c r="B48" t="s">
-        <v>101</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
+        <v>44953</v>
+      </c>
+      <c r="B49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
         <v>44952</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>44952</v>
+      </c>
+      <c r="B51" t="s">
         <v>110</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+    <row r="52" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
         <v>44951</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B52" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
-        <v>44949</v>
-      </c>
-      <c r="B51" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
-        <v>44949</v>
-      </c>
-      <c r="B52" t="s">
-        <v>103</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -2078,10 +2096,10 @@
         <v>44949</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>104</v>
+        <v>89</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2092,105 +2110,127 @@
         <v>103</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>44949</v>
       </c>
       <c r="B55" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>44944</v>
+        <v>44949</v>
       </c>
       <c r="B56" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>44944</v>
+        <v>44949</v>
       </c>
       <c r="B57" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>44944</v>
       </c>
       <c r="B58" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>44944</v>
       </c>
       <c r="B59" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>44944</v>
       </c>
       <c r="B60" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>44944</v>
       </c>
       <c r="B61" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>44944</v>
       </c>
       <c r="B62" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>44944</v>
       </c>
       <c r="B63" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B65" t="s">
         <v>87</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>86</v>
       </c>
     </row>

--- a/Projects/model_documentation.xlsx
+++ b/Projects/model_documentation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20396"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37ADAACE-BB1C-40F5-8B6D-DE067312FE9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FB4FAA-C951-4DFA-ADF9-D42C5F16DE0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="10308" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="10308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="historical_calibration" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="197">
   <si>
     <t>Date</t>
   </si>
@@ -711,6 +711,9 @@
   </si>
   <si>
     <t>With the proper connectivity set up, well pumping goes from 100,000 to 10,000 m3/d, 25,000 to 10,000 m3/d. GHB acually only decreases a little bit, less than I would expect.</t>
+  </si>
+  <si>
+    <t>With the local models I found that high vertical resolution led to a strong control on model drainage with the GHB extern boundary. I looked at using CVHM2 but the output is still not available, so ideally I should use the model output from the regional model to reflect the external boundary conditions in the local model with specified flux boundaries.</t>
   </si>
 </sst>
 </file>
@@ -1062,15 +1065,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E4A244-E3B5-46CF-83BA-D24D8C870C37}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" style="4" customWidth="1"/>
-    <col min="3" max="4" width="56.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="62.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
@@ -1093,6 +1097,17 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>45012</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
@@ -1468,7 +1483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC7BF14-4A67-4FD5-AA17-58E63ADE83DF}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2298,10 +2313,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D471C2-6142-4E20-AF98-9F82EA310400}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2329,20 +2344,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>44979</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>169</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>1</v>
       </c>
     </row>

--- a/Projects/model_documentation.xlsx
+++ b/Projects/model_documentation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FB4FAA-C951-4DFA-ADF9-D42C5F16DE0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884D4AFE-5747-483A-AF8B-A304DA1F76EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="10308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="historical_calibration" sheetId="5" r:id="rId1"/>
@@ -22,12 +22,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="219">
   <si>
     <t>Date</t>
   </si>
@@ -714,6 +725,96 @@
   </si>
   <si>
     <t>With the local models I found that high vertical resolution led to a strong control on model drainage with the GHB extern boundary. I looked at using CVHM2 but the output is still not available, so ideally I should use the model output from the regional model to reflect the external boundary conditions in the local model with specified flux boundaries.</t>
+  </si>
+  <si>
+    <t>Switching to OWHM with nwt/upw, after updating run to extend from 2014-2020 instead of just 2016-2020 and making GHB monthly had issues with solver convergence in many steps. Took 1 hr 23 min, had CME= 12.3% which is huge, not sure why. Need to plot water budget. 
+The well package is again driving huge error when running the model with OWHM, I must need to fix the parameter that sets the decrease. The issue is that OWHM only turns off pumping in unconfined cells assuming that cells set as confined should stay active, but in NWT confined cells can be dry and active which allows pumping from dry cells to occurr.
+Setting all layers as convertible fixed percent error issue, but more days had mxiter in fall 2015. Overall mxiter was down for most, CME = 0%, 1 hr 7 min. 
+Still need to identify why recharge goes from input 0.7E6 to 0.8E3 for steady state</t>
+  </si>
+  <si>
+    <t>Model water budget</t>
+  </si>
+  <si>
+    <t>Switched inflow for steady state based on previous inflow mean. Updated SFR strhc1 to use vka divided by 10 for gravel/sand only
+Removed recharge scale array to allow model to run with calculate recharge (subtract ET, minus for low VKA).
+-&gt; model ran 46 min, no mxiter, 0% CME
+-&gt;still way under predicting heads</t>
+  </si>
+  <si>
+    <t>I discovered that the kriged arrays had units of feet instead of meters! which was causing issues. Heads are now appropriate on edges, but heads still tend to be too high likely due to excess recharge in steady state.
+Increased Mehrten HK from 1E-7 to 1E-6 m/s and  decreased Sy of Laguna from 0.15 to 0.1 to increase pumpin geffects. -&gt; saw an increase in the extremity of the mound and deeper pumping effects.
+Decreased VANI from 100 to 10 for Mehrten and Laguna to reduce extreme mounding in the foothills, Also it is likely that vertical anisotropy is less extreme in deeper units where flow is already signficiantly reduced in the horizontal. -&gt; didn't affect mound, reduced extreme decline due to groundwater pumping</t>
+  </si>
+  <si>
+    <t>Model structure</t>
+  </si>
+  <si>
+    <t>I realized that I had set the value of Laguna as 1E-5 and Mehrten as 1E-7 for hk when Jan stated the deep layers had 1E-5 for horiz. HK and 1E-7 for vert. HK
+Overall I think the major issue is a structural geology issue because the Mehrten formation is having too much control on the shallow geology and the upscaling created pockets of low flow that block horizontal flow
+Not sure if this should be considered the fault of the aquifer bottom rising (thinning aquifer), the low conductivity Mehrten unit, or issues in the upper layer of alluvium. -&gt; 1. Test alluvium by using avg value, 2. test Mehrten issue by increasing Laguna formtaion.
+The mound will form no matter what because the only outflow is lateral groundwater outflow (no pumping in the area or drain flows). Essentially higher conductivity would allow water to exit the sides.</t>
+  </si>
+  <si>
+    <t>Adding 10 layers of tprogs to improve alluvium representation did not change the head representation significantly (2 hr 42 min). Heads in the floodplain increased slightly, perhaps due to greater connectivity with the delta? And heads in the upper aquifer maintained their elevated status or perhaps increased slightly. This seems to suggest that the low conductivity of the laguna and mehrten were not at fault for elevated levels.
+In general, most wells did not have a recorded WELL_DEPTH in the all_obs dataset so they were pulling from the irrigation well interpolated array which may be overestimating their depths as many wells were still placed in the bottom layer (need to adjust function to see if wells are below model bottom)</t>
+  </si>
+  <si>
+    <t>HOB</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Eventually should standardize use 1 based row, column for inputs then converting to 0 based in python.</t>
+  </si>
+  <si>
+    <t>Updated HOB input to use file that performed auto QAQC to remove outliers. There are still quite a few wells in the bottom layer
+It seems 13 wells are dropped entirely with the auto QAQC, out of which, 2 of them had clean enough datasets they would be worth including.
+-&gt; be careful with merge because I had been dropping all wells without perforation on accident
+-&gt; there are 8 wells that are deeper than the model bottom and many other wells are more shallow after more careful characterization
+After fixing HOB layering and pulling the new time series, the heads did not significantly change which again shows that there is simply too much water in the domain.</t>
+  </si>
+  <si>
+    <t>Model run with initial heads set from kriged data on start date with no steady state to test if the model starts at the correct elevation if it will remain or drift upward based on excessive recharge. Groundwater elevations ramp quickly up to an elevated stage with the recharge (2 hr 21 min)</t>
+  </si>
+  <si>
+    <t>Soil water budget</t>
+  </si>
+  <si>
+    <t>IDC uses a water balance soil water budget with the percolation calculated using the Mualem, van Genuchten equations, which could be applied in python with loops. 
+For one more attempt, I started the model with no steady state with the UZF package to better calculate recharge (9 hr 43 min). -&gt; UZF is not the solution because heads climbed up very quickly to their high stage due to excess recharge. 
+-&gt; Review inputs of ET/rain one more time to look for issues of units, area extent, difference between stations.</t>
+  </si>
+  <si>
+    <t>Rain data averages 15-36 inches per year which aligns with GSP estimates. When scaling with area we would see 287 to 700 TAF which is around the estimate of 400 TAF of precip for SASb. 
+My old versus new rain input has about the same annual values. The old ag pumping (~400TAF) estimated 3 times the new pumping, but the new pumping (~130 AF) seems to align more with SASB cosana estimates.
+This leaves the question to differences in runoff and a lack of a soil zone storage.
+-&gt; runoff predictions are about 1/3 of the annual precipitation instead of nearly 50% but this could be due to lower urban area coverage.
+-&gt; it really seems the issue is the lack of a soil water budget....</t>
+  </si>
+  <si>
+    <t>Basic soil water budget with rain fall, runoff based on the SCS-CN method, ET from pre-calculated ETc maps, percolation calculated based on Ksat with Mualem, van Genuchten parameters. It successfully calculates percolation closer to about 30% of rainfall, mid work I found I accidentally divided soil depth 1/10 too much and fixed this.
+-&gt;the decreased recharge makes it so 2/3 the wells are consistently at the correct depth of observations and about 1/3 see a dramatic rise from steady state. The wells with the rise are generally on the south side of the river near the foothills in east Wilton where the main pumping is small farm operations and ag-residential. I believe I underestimated ag-res use in the model by assuming 1/3 AF/year so I'm increasing it to 2 AF/year which is on the high end to see if there is an impact, also removed the 30 year age limit and set at 40 to reduce the number of well cutoff.</t>
+  </si>
+  <si>
+    <t>Water budget</t>
+  </si>
+  <si>
+    <t>Correcting the GHB to have units of meters instead of feet (1/3 the drawdown) halved outflow to the GHB and doubled ET but didn't change pumping SFR or LAK seepage. It really brought up the seasonal pumping depressions so water levels don't drop much below the thalweg. GW Contours at the edge of the domain went from -10 to -20 (when units were in feet) to about -2 to -4 (units are in meters and correct.
+-&gt; I'm not sure why ET and pumping aren't increasing more with the higher groundwater elevations.</t>
+  </si>
+  <si>
+    <t>Double check the step of removing extra ET/pumping (3/6/2023) because after finding GHB was in feet instead of meters there is not enough drawdown in the domain.</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>Niswonger 2007 found maximum Ks (m/d) of 1.74. Reaches ranged from values of 0.01 to 0.1 to 1.74 m/day so scaled TPROGs max of 364/100 (HK/VANI) of 3.64 m/day would be in the reasonable range. Sediment coring done by Niswonger on a very small scale (100m reach) found Ks of 0.018 m/day for Muddy sand to 3E-5 m/day for sandy clay, however the calibrated values for muddy sand were nearly 100 times greater than the measured value which would place it on the range of 1 m/d so this does make it seem reasonable to have 3.64 m/day as the max VKA for gravel with sand as 0.2 m/day.</t>
+  </si>
+  <si>
+    <t>The manually created land fallow shapefile I made is more accurate than the DWR land use so I will continue to use that to crop out where there shouldn't be pumping as the DWR data doesn’t include the corn on Oneto-Dnier.</t>
   </si>
 </sst>
 </file>
@@ -1063,22 +1164,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E4A244-E3B5-46CF-83BA-D24D8C870C37}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="62.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="14.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="91.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="56.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1095,67 +1196,188 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
+        <v>45029</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>45028</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>45027</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>45027</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>45026</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>45026</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>45024</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>45022</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>45022</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>45014</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>45013</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>45012</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>44867</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+    <row r="16" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>44867</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>44866</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>44725</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1166,21 +1388,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="83.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="83.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1197,168 +1420,172 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>44930</v>
+        <v>45033</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+      <c r="G2">
+        <f>(0.00014)*24/100</f>
+        <v>3.3599999999999997E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44930</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44930</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>44919</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>44916</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>44900</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44900</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>44900</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>44880</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>44875</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>44860</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>44847</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>44847</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>44841</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>44831</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>44826</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44826</v>
       </c>
@@ -1366,10 +1593,10 @@
         <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44826</v>
       </c>
@@ -1377,99 +1604,110 @@
         <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>44812</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+    <row r="19" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>44777</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>44767</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>44764</v>
+        <v>44767</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44764</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
+        <v>44764</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>44763</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>1</v>
       </c>
     </row>
@@ -1481,21 +1719,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC7BF14-4A67-4FD5-AA17-58E63ADE83DF}">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="94.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="47.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="94.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1509,87 +1747,90 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
+        <v>45033</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>45033</v>
+      </c>
+      <c r="B3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>45008</v>
-      </c>
-      <c r="B2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>45002</v>
-      </c>
-      <c r="B3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>45001</v>
       </c>
       <c r="B4" t="s">
         <v>191</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>45002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>45001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>45000</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="8" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>44999</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>188</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>44991</v>
-      </c>
-      <c r="B7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>44991</v>
-      </c>
-      <c r="B8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44991</v>
       </c>
@@ -1597,340 +1838,340 @@
         <v>174</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="B10" t="s">
         <v>174</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="B11" t="s">
         <v>174</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>44985</v>
+        <v>44988</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>44984</v>
+        <v>44988</v>
       </c>
       <c r="B13" t="s">
         <v>174</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B14" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44984</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44984</v>
       </c>
       <c r="B16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>44984</v>
+      </c>
+      <c r="B17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>44984</v>
+      </c>
+      <c r="B18" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>44980</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>44979</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+    <row r="21" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>44979</v>
-      </c>
-      <c r="B19" t="s">
-        <v>159</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>44978</v>
-      </c>
-      <c r="B20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>44978</v>
       </c>
       <c r="B21" t="s">
         <v>159</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>44978</v>
+      </c>
+      <c r="B22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>44978</v>
+      </c>
+      <c r="B23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>44977</v>
-      </c>
-      <c r="B22" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>44977</v>
-      </c>
-      <c r="B23" t="s">
-        <v>151</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44977</v>
       </c>
       <c r="B24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>44977</v>
+      </c>
+      <c r="B25" t="s">
         <v>151</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>44977</v>
+      </c>
+      <c r="B26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>44976</v>
-      </c>
-      <c r="B25" t="s">
-        <v>145</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>44973</v>
-      </c>
-      <c r="B26" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>44975</v>
       </c>
       <c r="B27" t="s">
         <v>145</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>44973</v>
+      </c>
+      <c r="B28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>44975</v>
+      </c>
+      <c r="B29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+    <row r="30" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>44975</v>
-      </c>
-      <c r="B28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>44973</v>
-      </c>
-      <c r="B29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>44971</v>
       </c>
       <c r="B30" t="s">
         <v>89</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>44971</v>
+        <v>44973</v>
       </c>
       <c r="B31" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44971</v>
       </c>
       <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>44971</v>
+      </c>
+      <c r="B33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>44971</v>
+      </c>
+      <c r="B34" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+    <row r="35" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <v>44967</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>138</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>44964</v>
-      </c>
-      <c r="B34" t="s">
-        <v>134</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>44964</v>
-      </c>
-      <c r="B35" t="s">
-        <v>122</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44964</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44964</v>
       </c>
@@ -1938,208 +2179,208 @@
         <v>122</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44964</v>
       </c>
       <c r="B38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>44964</v>
+      </c>
+      <c r="B39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>44964</v>
+      </c>
+      <c r="B40" t="s">
         <v>129</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>44963</v>
-      </c>
-      <c r="B39" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>44963</v>
-      </c>
-      <c r="B40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>44963</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>44963</v>
       </c>
       <c r="B42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>44963</v>
+      </c>
+      <c r="B43" t="s">
         <v>120</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>44959</v>
-      </c>
-      <c r="B43" t="s">
-        <v>122</v>
-      </c>
       <c r="C43" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>44959</v>
+        <v>44963</v>
       </c>
       <c r="B44" t="s">
         <v>120</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B45" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+    <row r="47" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
         <v>44958</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B47" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+    <row r="48" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
         <v>44955</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B48" t="s">
         <v>117</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+    <row r="49" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
         <v>44955</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B49" t="s">
         <v>115</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+    <row r="50" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
         <v>44953</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B50" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+    <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
         <v>44953</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B51" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+    <row r="52" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
         <v>44952</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B52" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+    <row r="53" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
         <v>44952</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B53" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+    <row r="54" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
         <v>44951</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B54" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <v>44949</v>
-      </c>
-      <c r="B53" t="s">
-        <v>89</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
-        <v>44949</v>
-      </c>
-      <c r="B54" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>44949</v>
       </c>
       <c r="B55" t="s">
-        <v>103</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>44949</v>
       </c>
@@ -2147,105 +2388,127 @@
         <v>103</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>44949</v>
       </c>
       <c r="B57" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>44949</v>
+      </c>
+      <c r="B58" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>44949</v>
+      </c>
+      <c r="B59" t="s">
         <v>101</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
-        <v>44944</v>
-      </c>
-      <c r="B58" t="s">
-        <v>99</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
-        <v>44944</v>
-      </c>
-      <c r="B59" t="s">
-        <v>96</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>44944</v>
       </c>
       <c r="B60" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>44944</v>
       </c>
       <c r="B61" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>44944</v>
       </c>
       <c r="B62" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>44944</v>
       </c>
       <c r="B63" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>44944</v>
       </c>
       <c r="B64" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>44944</v>
       </c>
       <c r="B65" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B67" t="s">
         <v>87</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2262,13 +2525,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="68.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="68.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2282,7 +2545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44981</v>
       </c>
@@ -2294,7 +2557,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44981</v>
       </c>
@@ -2319,15 +2582,15 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="64.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="64.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2344,14 +2607,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44979</v>
       </c>
@@ -2381,16 +2644,16 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2407,7 +2670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44881</v>
       </c>
@@ -2421,7 +2684,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44881</v>
       </c>
@@ -2435,7 +2698,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44792</v>
       </c>
@@ -2446,7 +2709,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44767</v>
       </c>
@@ -2463,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44755</v>
       </c>
@@ -2480,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44755</v>
       </c>
@@ -2497,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44755</v>
       </c>
@@ -2514,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44755</v>
       </c>
@@ -2531,7 +2794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44755</v>
       </c>
@@ -2548,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44755</v>
       </c>
@@ -2578,15 +2841,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="45.5546875" customWidth="1"/>
-    <col min="4" max="4" width="29.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2603,7 +2866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44764</v>
       </c>
@@ -2628,9 +2891,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -2638,7 +2901,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -2646,7 +2909,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>85</v>
       </c>

--- a/Projects/model_documentation.xlsx
+++ b/Projects/model_documentation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884D4AFE-5747-483A-AF8B-A304DA1F76EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF488EF-EAF3-4D2D-851E-5A7BD9F75244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21615" yWindow="3600" windowWidth="17280" windowHeight="8970" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="historical_calibration" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="229">
   <si>
     <t>Date</t>
   </si>
@@ -815,6 +815,42 @@
   </si>
   <si>
     <t>The manually created land fallow shapefile I made is more accurate than the DWR land use so I will continue to use that to crop out where there shouldn't be pumping as the DWR data doesn’t include the corn on Oneto-Dnier.</t>
+  </si>
+  <si>
+    <t>Looking back at the connectivity arrays to create a slice in 2D, I found it really odd that the connected components didn't align with the actual (volumes of coarse facies). I wanted to find out why they seemed to run in horizontal lines that didn't connect vertically, I played with different reshaping from the 1D line and found that a different order made the volumes of coarse incorrect but then the CCO values were unified. Looking back I then realized that I reshaped the 3D array of shape nlay, nrow, ncol to 1D which was in z y x format but Connec3D was expected x y z format so to correctly shape the input the input arrays need to be transposed to the shape ncol, nrow, nlay (x y z) then collapsed to 1D.</t>
+  </si>
+  <si>
+    <t>I need to rewrite the DAT files for all realizations and re-run the connectivity input. Then re-run the vertical connectivity input before re-running the levee setback analysis. The computation time is on the scale of 1 week so I need to get this running ASAP.</t>
+  </si>
+  <si>
+    <t>Analysis Re-run</t>
+  </si>
+  <si>
+    <t>Rerun DAT input for 100 (1 hr)
+Rerun Connec3D (25 hr)
+Rerun regional setback distance (9 hr)
+-&gt; the regional high conductivity area plot has the same pattern and only slight differences in realization lines, the mean is consistent so the change in connec3d didn't significantly alter the results 
+Rerun the local results 1,2,3 (25 hr?)</t>
+  </si>
+  <si>
+    <t>Setup</t>
+  </si>
+  <si>
+    <t>I'm running the set up on my work laptop because only 10 realizations isn't too big of files</t>
+  </si>
+  <si>
+    <t>I found an error where I set the ET surface as the model top instead of the DEM elevations, essentially the ET was above land surface in inactive cells.
+I also found a major error becaues EVT should be suppled volumetric flux when I was using input which is why the rate was always so much smaller than it needed to be.</t>
+  </si>
+  <si>
+    <t>EVT Set up</t>
+  </si>
+  <si>
+    <t>I updated the EVT to use flux instead of rate and fixed the rooting depth so that it was variable from 4-10m again for the native vegetation.</t>
+  </si>
+  <si>
+    <t>After fixing the EVT the steady state starts much lower than it should because the model failed to converge in 500 iterations. The model recovered to the correct range of heads but tended to missing the peak streamflows as it was drawn down by the ET too much.
+I reset the native vegetation depth as 2m, and riparian native vegetation as 3m. Kept woodland at 10m and model fit was very good.</t>
   </si>
 </sst>
 </file>
@@ -1170,16 +1206,16 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="91.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="56.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="14.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="91.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1196,10 +1232,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>45029</v>
       </c>
@@ -1210,7 +1246,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>45028</v>
       </c>
@@ -1221,7 +1257,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>45027</v>
       </c>
@@ -1232,7 +1268,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>45027</v>
       </c>
@@ -1243,7 +1279,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>45026</v>
       </c>
@@ -1254,7 +1290,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>45026</v>
       </c>
@@ -1265,7 +1301,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>45024</v>
       </c>
@@ -1276,7 +1312,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>45022</v>
       </c>
@@ -1287,7 +1323,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>45022</v>
       </c>
@@ -1298,7 +1334,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>45014</v>
       </c>
@@ -1309,7 +1345,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>45013</v>
       </c>
@@ -1320,7 +1356,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>45012</v>
       </c>
@@ -1331,7 +1367,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>44867</v>
       </c>
@@ -1342,7 +1378,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>44867</v>
       </c>
@@ -1356,7 +1392,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>44866</v>
       </c>
@@ -1370,7 +1406,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>44725</v>
       </c>
@@ -1388,22 +1424,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="83.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="83.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1420,194 +1456,197 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
+        <v>45037</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>45037</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>45033</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G2">
+      <c r="G4">
         <f>(0.00014)*24/100</f>
         <v>3.3599999999999997E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>44930</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>44930</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>44919</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>44916</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>44900</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
+        <v>44916</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>44900</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>44880</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>44900</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>44880</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>44875</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>44860</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E11">
+      <c r="E13">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="14" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>44847</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="15" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>44841</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>44831</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E14">
+      <c r="E16">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>44826</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>44826</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44826</v>
       </c>
@@ -1615,99 +1654,121 @@
         <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>44812</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="21" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>44777</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>44767</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>44764</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>44764</v>
+        <v>44767</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
+        <v>44764</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>44764</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>44763</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E23">
+      <c r="E25">
         <v>1</v>
       </c>
     </row>
@@ -1719,21 +1780,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC7BF14-4A67-4FD5-AA17-58E63ADE83DF}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="94.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="94.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1747,112 +1808,112 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>45041</v>
+      </c>
+      <c r="B3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>45033</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>45033</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>45008</v>
-      </c>
-      <c r="B4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>45002</v>
-      </c>
-      <c r="B5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>45001</v>
       </c>
       <c r="B6" t="s">
         <v>191</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>45002</v>
+      </c>
+      <c r="B7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>45001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>45000</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="10" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>44999</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>188</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>44991</v>
-      </c>
-      <c r="B9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>44991</v>
-      </c>
-      <c r="B10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44991</v>
       </c>
@@ -1860,340 +1921,340 @@
         <v>174</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="B12" t="s">
         <v>174</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="B13" t="s">
         <v>174</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>44985</v>
+        <v>44988</v>
       </c>
       <c r="B14" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>44984</v>
+        <v>44988</v>
       </c>
       <c r="B15" t="s">
         <v>174</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B16" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44984</v>
       </c>
       <c r="B17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44984</v>
       </c>
       <c r="B18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>44984</v>
+      </c>
+      <c r="B19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>44984</v>
+      </c>
+      <c r="B20" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>44980</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="22" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>44979</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>135</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="23" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>44979</v>
-      </c>
-      <c r="B21" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>44978</v>
-      </c>
-      <c r="B22" t="s">
-        <v>159</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>44978</v>
       </c>
       <c r="B23" t="s">
         <v>159</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>44978</v>
+      </c>
+      <c r="B24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>44978</v>
+      </c>
+      <c r="B25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>44977</v>
-      </c>
-      <c r="B24" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>44977</v>
-      </c>
-      <c r="B25" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>44977</v>
       </c>
       <c r="B26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>44977</v>
+      </c>
+      <c r="B27" t="s">
         <v>151</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>44977</v>
+      </c>
+      <c r="B28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="29" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>44976</v>
-      </c>
-      <c r="B27" t="s">
-        <v>145</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>44973</v>
-      </c>
-      <c r="B28" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>44975</v>
       </c>
       <c r="B29" t="s">
         <v>145</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>44973</v>
+      </c>
+      <c r="B30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>44975</v>
+      </c>
+      <c r="B31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="32" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
         <v>44975</v>
-      </c>
-      <c r="B30" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>44973</v>
-      </c>
-      <c r="B31" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>44971</v>
       </c>
       <c r="B32" t="s">
         <v>89</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>44971</v>
+        <v>44973</v>
       </c>
       <c r="B33" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>44971</v>
       </c>
       <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>44971</v>
+      </c>
+      <c r="B35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>44971</v>
+      </c>
+      <c r="B36" t="s">
         <v>135</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="300" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="37" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
         <v>44967</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>44964</v>
-      </c>
-      <c r="B36" t="s">
-        <v>134</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>44964</v>
-      </c>
-      <c r="B37" t="s">
-        <v>122</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>44964</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>44964</v>
       </c>
@@ -2201,208 +2262,208 @@
         <v>122</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>44964</v>
       </c>
       <c r="B40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>44964</v>
+      </c>
+      <c r="B41" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>44964</v>
+      </c>
+      <c r="B42" t="s">
         <v>129</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>44963</v>
-      </c>
-      <c r="B41" t="s">
-        <v>127</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>44963</v>
-      </c>
-      <c r="B42" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>44963</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>44963</v>
       </c>
       <c r="B44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>44963</v>
+      </c>
+      <c r="B45" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>44959</v>
-      </c>
-      <c r="B45" t="s">
-        <v>122</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>44959</v>
+        <v>44963</v>
       </c>
       <c r="B46" t="s">
         <v>120</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B48" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+    <row r="49" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
         <v>44958</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B49" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+    <row r="50" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
         <v>44955</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B50" t="s">
         <v>117</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+    <row r="51" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
         <v>44955</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B51" t="s">
         <v>115</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+    <row r="52" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
         <v>44953</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B52" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+    <row r="53" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
         <v>44953</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B53" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+    <row r="54" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
         <v>44952</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B54" t="s">
         <v>101</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+    <row r="55" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
         <v>44952</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B55" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+    <row r="56" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
         <v>44951</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B56" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>44949</v>
-      </c>
-      <c r="B55" t="s">
-        <v>89</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>44949</v>
-      </c>
-      <c r="B56" t="s">
-        <v>103</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>44949</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>44949</v>
       </c>
@@ -2410,105 +2471,127 @@
         <v>103</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>44949</v>
       </c>
       <c r="B59" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>44949</v>
+      </c>
+      <c r="B60" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>44949</v>
+      </c>
+      <c r="B61" t="s">
         <v>101</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>44944</v>
-      </c>
-      <c r="B60" t="s">
-        <v>99</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>44944</v>
-      </c>
-      <c r="B61" t="s">
-        <v>96</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>44944</v>
       </c>
       <c r="B62" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>44944</v>
       </c>
       <c r="B63" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>44944</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>44944</v>
       </c>
       <c r="B65" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>44944</v>
       </c>
       <c r="B66" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>44944</v>
       </c>
       <c r="B67" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B68" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B69" t="s">
         <v>87</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2519,19 +2602,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9157488-9F56-454D-A4D5-1DAD0DE24A20}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="68.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="68.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2545,29 +2628,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>44981</v>
+        <v>45040</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>223</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44981</v>
       </c>
       <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>44981</v>
+      </c>
+      <c r="B4" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2582,15 +2677,15 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="64.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="64.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2607,14 +2702,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44979</v>
       </c>
@@ -2644,16 +2739,16 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2670,7 +2765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44881</v>
       </c>
@@ -2684,7 +2779,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44881</v>
       </c>
@@ -2698,7 +2793,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44792</v>
       </c>
@@ -2709,7 +2804,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44767</v>
       </c>
@@ -2726,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44755</v>
       </c>
@@ -2743,7 +2838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44755</v>
       </c>
@@ -2760,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44755</v>
       </c>
@@ -2777,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44755</v>
       </c>
@@ -2794,7 +2889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44755</v>
       </c>
@@ -2811,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44755</v>
       </c>
@@ -2841,15 +2936,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="45.5546875" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2866,7 +2961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44764</v>
       </c>
@@ -2891,9 +2986,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -2901,7 +2996,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -2909,7 +3004,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>85</v>
       </c>

--- a/Projects/model_documentation.xlsx
+++ b/Projects/model_documentation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884D4AFE-5747-483A-AF8B-A304DA1F76EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8C438F-FC62-4C9F-9D85-6A9F1869DC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="historical_calibration" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="227">
   <si>
     <t>Date</t>
   </si>
@@ -815,6 +815,33 @@
   </si>
   <si>
     <t>The manually created land fallow shapefile I made is more accurate than the DWR land use so I will continue to use that to crop out where there shouldn't be pumping as the DWR data doesn’t include the corn on Oneto-Dnier.</t>
+  </si>
+  <si>
+    <t>Reviewing the crop maps near the wells on the south side of the Cosumnes there is not a lot of agriculture, just some mixed pasture and a few tiny pathces of nursery. From google earth it can be seen that Laguna del Sol and the fish farm could be using quite a bit of water but there is not way to easily quantify this. This area has groundwater elevations that are consistently high because there is very little simulated pumping while the observed hydrographs show a very consistent summer time draw down.
+-&gt; either we are missing a major user like lagunda del sol/fish farm or something else but we can't make up those numbers. Alternatively the domestic pumping rates could be increased from a 2AF/year rate to 4 AF/year?</t>
+  </si>
+  <si>
+    <t>After updating model to use DWR land use ETc for EVT and WEL there was a slight improvement as less recharge was going in and summer depressions were slightly lower. Since there still isn't enough drawdown then it may be that more ET for riparian vegetation is needed or the pumping is not captured because pumping wells are deeper than the domain.</t>
+  </si>
+  <si>
+    <t>I created a shapefile mapping the locations of fish farms and over a year they would use 1 TAF in total while domestic pumping is 10 TAF per year, so there would be some impact locally but not much over the entire domain, but the issue is just a few local wells so I'll have to implement it to see the benefits.
+I tried increasing domestic pumping from 2AF to 4AF and 12AF but found that it ended up creating excess drawdown on the north side of the river indicating the issue is south side specific due to lack of pumping from small farms and perhaps excess recharge still as the CN were lower in the hills.</t>
+  </si>
+  <si>
+    <t>I updated the CN for the domain by using Poor hydrologic condition CN where the slope was &gt;3% for pasture and fair where it was less. This essentially increased CN in the foothills to further reduce recharge when most is expected as runoff.</t>
+  </si>
+  <si>
+    <t>It seems that minor updates to recharge and domestic pumping and addition of fish farm pumping are not going to significantly change the pumping dynamics on the south side of the river.
+-&gt;I'm going to run the model with more TPROGs layers 64 meters instead of 12 m to determine maximum feasible runtime as with 12m it takes 1.5 hours. The next step would be to run all 100 realizations and pick the realization with the lowest error to use for the hydro-economic analysis.</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Run times for the local analysis zones 1 to 3, with merely adding an array to zero out high conductivity outside of the zone. Flowtype 1 took 1095 min for, FT2 took 428 min, FT3 took 196 min.</t>
   </si>
 </sst>
 </file>
@@ -1164,10 +1191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E4A244-E3B5-46CF-83BA-D24D8C870C37}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,188 +1223,221 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>45036</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
+        <v>45035</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>45033</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>45029</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="6" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>45028</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>45027</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>45027</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>45026</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="10" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>45026</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    <row r="11" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>45024</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    <row r="12" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>45022</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>45022</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>45014</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
+        <v>45022</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>45014</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>45013</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>45012</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>44867</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+    <row r="18" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>44867</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>44866</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>44725</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1388,10 +1448,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,7 +1463,7 @@
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1420,183 +1480,179 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
+        <v>45036</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>45033</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G2">
-        <f>(0.00014)*24/100</f>
-        <v>3.3599999999999997E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>44930</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44930</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44930</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>44919</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>44916</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>44900</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44900</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44900</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="10" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>44880</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>44875</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>44860</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>44847</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>44847</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>44841</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>44831</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>44826</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44826</v>
       </c>
@@ -1604,10 +1660,10 @@
         <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44826</v>
       </c>
@@ -1615,99 +1671,110 @@
         <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>44812</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="20" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>44777</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>44767</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>44764</v>
+        <v>44767</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44764</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
+        <v>44764</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>44763</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>1</v>
       </c>
     </row>
@@ -1719,10 +1786,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC7BF14-4A67-4FD5-AA17-58E63ADE83DF}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1747,7 +1814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45033</v>
       </c>
@@ -1755,10 +1822,10 @@
         <v>145</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45033</v>
       </c>
@@ -1766,82 +1833,82 @@
         <v>145</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45033</v>
+      </c>
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>45008</v>
-      </c>
-      <c r="B4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>45002</v>
       </c>
       <c r="B5" t="s">
         <v>191</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="B6" t="s">
         <v>191</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>45001</v>
+      </c>
+      <c r="B7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>45000</v>
-      </c>
-      <c r="B7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>44999</v>
       </c>
       <c r="B8" t="s">
         <v>188</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44999</v>
+      </c>
+      <c r="B9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>44991</v>
-      </c>
-      <c r="B9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44991</v>
       </c>
@@ -1849,10 +1916,10 @@
         <v>174</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44991</v>
       </c>
@@ -1860,27 +1927,24 @@
         <v>174</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="B12" t="s">
         <v>174</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44988</v>
       </c>
@@ -1888,35 +1952,35 @@
         <v>174</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>44988</v>
+      </c>
+      <c r="B14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>44985</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>179</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>44984</v>
-      </c>
-      <c r="B15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44984</v>
       </c>
@@ -1924,82 +1988,82 @@
         <v>174</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44984</v>
       </c>
       <c r="B17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44984</v>
       </c>
       <c r="B18" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="B19" t="s">
         <v>127</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>44980</v>
+      </c>
+      <c r="B20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>44979</v>
-      </c>
-      <c r="B20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44979</v>
       </c>
       <c r="B21" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>44978</v>
+        <v>44979</v>
       </c>
       <c r="B22" t="s">
         <v>159</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44978</v>
       </c>
@@ -2007,38 +2071,41 @@
         <v>159</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>44978</v>
+      </c>
+      <c r="B24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>44977</v>
-      </c>
-      <c r="B24" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44977</v>
       </c>
       <c r="B25" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44977</v>
       </c>
@@ -2046,209 +2113,209 @@
         <v>151</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>44977</v>
+      </c>
+      <c r="B27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="28" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>44976</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>145</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="29" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>44973</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>44975</v>
-      </c>
-      <c r="B29" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44975</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>44973</v>
+        <v>44975</v>
       </c>
       <c r="B31" t="s">
         <v>89</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>44971</v>
+        <v>44973</v>
       </c>
       <c r="B32" t="s">
         <v>89</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="180" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44971</v>
       </c>
       <c r="B33" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44971</v>
       </c>
       <c r="B34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>44971</v>
+      </c>
+      <c r="B35" t="s">
         <v>135</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="300" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="36" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <v>44967</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>44964</v>
-      </c>
-      <c r="B36" t="s">
-        <v>134</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44964</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44964</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44964</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44964</v>
       </c>
       <c r="B40" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>44964</v>
+      </c>
+      <c r="B41" t="s">
         <v>129</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>44963</v>
-      </c>
-      <c r="B41" t="s">
-        <v>127</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>44963</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>44963</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>44963</v>
       </c>
@@ -2256,76 +2323,76 @@
         <v>120</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>44963</v>
+      </c>
+      <c r="B45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>44959</v>
-      </c>
-      <c r="B45" t="s">
-        <v>122</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44959</v>
       </c>
       <c r="B46" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B47" t="s">
         <v>120</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>44958</v>
-      </c>
-      <c r="B47" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>44955</v>
+        <v>44958</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>44955</v>
       </c>
       <c r="B49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>44955</v>
+      </c>
+      <c r="B50" t="s">
         <v>115</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>44953</v>
-      </c>
-      <c r="B50" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>44953</v>
       </c>
@@ -2333,65 +2400,65 @@
         <v>103</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>44952</v>
+        <v>44953</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>44952</v>
       </c>
       <c r="B53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>44952</v>
+      </c>
+      <c r="B54" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+    <row r="55" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
         <v>44951</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>44949</v>
-      </c>
-      <c r="B55" t="s">
-        <v>89</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>44949</v>
       </c>
       <c r="B56" t="s">
-        <v>103</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>44949</v>
       </c>
@@ -2399,10 +2466,10 @@
         <v>103</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>44949</v>
       </c>
@@ -2410,7 +2477,7 @@
         <v>103</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2418,35 +2485,35 @@
         <v>44949</v>
       </c>
       <c r="B59" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>44949</v>
+      </c>
+      <c r="B60" t="s">
         <v>101</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>44944</v>
-      </c>
-      <c r="B60" t="s">
-        <v>99</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>44944</v>
       </c>
       <c r="B61" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>44944</v>
       </c>
@@ -2454,43 +2521,43 @@
         <v>96</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>44944</v>
       </c>
       <c r="B63" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>44944</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>44944</v>
       </c>
       <c r="B65" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>44944</v>
       </c>
@@ -2498,17 +2565,28 @@
         <v>89</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>44944</v>
       </c>
       <c r="B67" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B68" t="s">
         <v>87</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>86</v>
       </c>
     </row>

--- a/Projects/model_documentation.xlsx
+++ b/Projects/model_documentation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF488EF-EAF3-4D2D-851E-5A7BD9F75244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAE800A-16BE-41F2-820F-30A2F413108F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21615" yWindow="3600" windowWidth="17280" windowHeight="8970" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="historical_calibration" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="234">
   <si>
     <t>Date</t>
   </si>
@@ -851,6 +851,21 @@
   <si>
     <t>After fixing the EVT the steady state starts much lower than it should because the model failed to converge in 500 iterations. The model recovered to the correct range of heads but tended to missing the peak streamflows as it was drawn down by the ET too much.
 I reset the native vegetation depth as 2m, and riparian native vegetation as 3m. Kept woodland at 10m and model fit was very good.</t>
+  </si>
+  <si>
+    <t>EVT</t>
+  </si>
+  <si>
+    <t>I removed EVT under the stream to try to improve the steady state and avoid excess drawdown directly below the stream but this led to the weird effect again where the steady state levels start really low. But removing EVT below SFR also improved runtime from 1 hr 20 to 28 min.</t>
+  </si>
+  <si>
+    <t>Set up</t>
+  </si>
+  <si>
+    <t>I removed the steady state period to avoid excessive drawdown on start up with new EVT input. No issues with water budget, 1 or two random steps with 2% error. Good fit with hydrographs (NSE&gt;0.5). The difference again though is that there is no baseflow occuring for most time steps which seems to be the fault of excessive ET or perhaps the fault of a change in stream elevation with the new model grid. I'm inclined to think it's an issue with the model grid being 2m steps now so the stream bottom is potentially being weird, but again it could just be higher ET rates with that 10 m rooting depth next to the stream.</t>
+  </si>
+  <si>
+    <t>One thing that might be worth addressing is whether we are overestimating ET by not including a lot pumping, this is only a concern if ET is evaluated in the results.</t>
   </si>
 </sst>
 </file>
@@ -1780,10 +1795,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC7BF14-4A67-4FD5-AA17-58E63ADE83DF}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1808,134 +1823,140 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>45042</v>
+      </c>
       <c r="B2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>45042</v>
+      </c>
+      <c r="B3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>45041</v>
+      </c>
+      <c r="B4" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>45041</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>45033</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>45033</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>45008</v>
-      </c>
-      <c r="B6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>45002</v>
-      </c>
-      <c r="B7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>45001</v>
       </c>
       <c r="B8" t="s">
         <v>191</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>45002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>45001</v>
+      </c>
+      <c r="B10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+    <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>45000</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>188</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+    <row r="12" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>44999</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>188</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>44991</v>
-      </c>
-      <c r="B11" t="s">
-        <v>174</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>44991</v>
-      </c>
-      <c r="B12" t="s">
-        <v>174</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44991</v>
       </c>
@@ -1943,340 +1964,340 @@
         <v>174</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="B14" t="s">
         <v>174</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="B15" t="s">
         <v>174</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>44985</v>
+        <v>44988</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>44984</v>
+        <v>44988</v>
       </c>
       <c r="B17" t="s">
         <v>174</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B18" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44984</v>
       </c>
       <c r="B19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44984</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
+        <v>44984</v>
+      </c>
+      <c r="B21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>44984</v>
+      </c>
+      <c r="B22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>44980</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>127</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+    <row r="24" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>44979</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>135</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+    <row r="25" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>44979</v>
-      </c>
-      <c r="B23" t="s">
-        <v>159</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>44978</v>
-      </c>
-      <c r="B24" t="s">
-        <v>159</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>44978</v>
       </c>
       <c r="B25" t="s">
         <v>159</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>44978</v>
+      </c>
+      <c r="B26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>44978</v>
+      </c>
+      <c r="B27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>44977</v>
-      </c>
-      <c r="B26" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>44977</v>
-      </c>
-      <c r="B27" t="s">
-        <v>151</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>44977</v>
       </c>
       <c r="B28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>44977</v>
+      </c>
+      <c r="B29" t="s">
         <v>151</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>44977</v>
+      </c>
+      <c r="B30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>44976</v>
-      </c>
-      <c r="B29" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>44973</v>
-      </c>
-      <c r="B30" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>44975</v>
+        <v>44976</v>
       </c>
       <c r="B31" t="s">
         <v>145</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>44973</v>
+      </c>
+      <c r="B32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>44975</v>
+      </c>
+      <c r="B33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+    <row r="34" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
         <v>44975</v>
-      </c>
-      <c r="B32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>44973</v>
-      </c>
-      <c r="B33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>44971</v>
       </c>
       <c r="B34" t="s">
         <v>89</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>44971</v>
+        <v>44973</v>
       </c>
       <c r="B35" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>44971</v>
       </c>
       <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>44971</v>
+      </c>
+      <c r="B37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>44971</v>
+      </c>
+      <c r="B38" t="s">
         <v>135</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+    <row r="39" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
         <v>44967</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>138</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>44964</v>
-      </c>
-      <c r="B38" t="s">
-        <v>134</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>44964</v>
-      </c>
-      <c r="B39" t="s">
-        <v>122</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>44964</v>
       </c>
       <c r="B40" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>44964</v>
       </c>
@@ -2284,194 +2305,194 @@
         <v>122</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>44964</v>
       </c>
       <c r="B42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>44964</v>
+      </c>
+      <c r="B43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>44964</v>
+      </c>
+      <c r="B44" t="s">
         <v>129</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>44963</v>
-      </c>
-      <c r="B43" t="s">
-        <v>127</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>44963</v>
-      </c>
-      <c r="B44" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44963</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>44963</v>
       </c>
       <c r="B46" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>44963</v>
+      </c>
+      <c r="B47" t="s">
         <v>120</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>44959</v>
-      </c>
-      <c r="B47" t="s">
-        <v>122</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>44959</v>
+        <v>44963</v>
       </c>
       <c r="B48" t="s">
         <v>120</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+    <row r="51" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
         <v>44958</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B51" t="s">
         <v>89</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+    <row r="52" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
         <v>44955</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B52" t="s">
         <v>117</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+    <row r="53" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
         <v>44955</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B53" t="s">
         <v>115</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+    <row r="54" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
         <v>44953</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B54" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <v>44953</v>
-      </c>
-      <c r="B53" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
-        <v>44952</v>
-      </c>
-      <c r="B54" t="s">
-        <v>101</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
+        <v>44953</v>
+      </c>
+      <c r="B55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
         <v>44952</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>44952</v>
+      </c>
+      <c r="B57" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+    <row r="58" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
         <v>44951</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B58" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
-        <v>44949</v>
-      </c>
-      <c r="B57" t="s">
-        <v>89</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
-        <v>44949</v>
-      </c>
-      <c r="B58" t="s">
-        <v>103</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -2479,10 +2500,10 @@
         <v>44949</v>
       </c>
       <c r="B59" t="s">
-        <v>103</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>104</v>
+        <v>89</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2493,105 +2514,127 @@
         <v>103</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>44949</v>
       </c>
       <c r="B61" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>44944</v>
+        <v>44949</v>
       </c>
       <c r="B62" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>44944</v>
+        <v>44949</v>
       </c>
       <c r="B63" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>44944</v>
       </c>
       <c r="B64" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>44944</v>
       </c>
       <c r="B65" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>44944</v>
       </c>
       <c r="B66" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>44944</v>
       </c>
       <c r="B67" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>44944</v>
       </c>
       <c r="B68" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>44944</v>
       </c>
       <c r="B69" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B70" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B71" t="s">
         <v>87</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>86</v>
       </c>
     </row>

--- a/Projects/model_documentation.xlsx
+++ b/Projects/model_documentation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAE800A-16BE-41F2-820F-30A2F413108F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F4146A-8E20-4F40-A1FE-3F308AB02991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="historical_calibration" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="284">
   <si>
     <t>Date</t>
   </si>
@@ -826,46 +826,246 @@
     <t>Analysis Re-run</t>
   </si>
   <si>
+    <t>Setup</t>
+  </si>
+  <si>
+    <t>I'm running the set up on my work laptop because only 10 realizations isn't too big of files</t>
+  </si>
+  <si>
+    <t>I found an error where I set the ET surface as the model top instead of the DEM elevations, essentially the ET was above land surface in inactive cells.
+I also found a major error becaues EVT should be suppled volumetric flux when I was using input which is why the rate was always so much smaller than it needed to be.</t>
+  </si>
+  <si>
+    <t>EVT Set up</t>
+  </si>
+  <si>
+    <t>I updated the EVT to use flux instead of rate and fixed the rooting depth so that it was variable from 4-10m again for the native vegetation.</t>
+  </si>
+  <si>
+    <t>After fixing the EVT the steady state starts much lower than it should because the model failed to converge in 500 iterations. The model recovered to the correct range of heads but tended to missing the peak streamflows as it was drawn down by the ET too much.
+I reset the native vegetation depth as 2m, and riparian native vegetation as 3m. Kept woodland at 10m and model fit was very good.</t>
+  </si>
+  <si>
+    <t>EVT</t>
+  </si>
+  <si>
+    <t>I removed EVT under the stream to try to improve the steady state and avoid excess drawdown directly below the stream but this led to the weird effect again where the steady state levels start really low. But removing EVT below SFR also improved runtime from 1 hr 20 to 28 min.</t>
+  </si>
+  <si>
+    <t>Set up</t>
+  </si>
+  <si>
+    <t>I removed the steady state period to avoid excessive drawdown on start up with new EVT input. No issues with water budget, 1 or two random steps with 2% error. Good fit with hydrographs (NSE&gt;0.5). The difference again though is that there is no baseflow occuring for most time steps which seems to be the fault of excessive ET or perhaps the fault of a change in stream elevation with the new model grid. I'm inclined to think it's an issue with the model grid being 2m steps now so the stream bottom is potentially being weird, but again it could just be higher ET rates with that 10 m rooting depth next to the stream.</t>
+  </si>
+  <si>
+    <t>One thing that might be worth addressing is whether we are overestimating ET by not including a lot pumping, this is only a concern if ET is evaluated in the results.</t>
+  </si>
+  <si>
+    <t>The domestic well pumping was updated to be based mostly on the parcel data which identifies rural homes (5k), I calculated the area of the parcel to estimate water usage based on an estiamted 2AF/year and scaled to daily rates using average ET as a scaling method. I also scaled water usage between parcels by assuming usage increases with area (with some partial fraction baseed on land size) with a baseline usage of 150 gpd.</t>
+  </si>
+  <si>
+    <t>Pumping</t>
+  </si>
+  <si>
+    <t>I review the map of residential houses not defined as rural, rural homes and municipal well locations and found that generally municipal wells overlap with both and might be a bad method to represent pumping since we don't actually know the rates at the wells or if they are already accounted for by a rural parcel. I removed the municipal pumping as it only accounts for about 10% of pumping and this could be replaced by assuming a constant daily pumping under urban residential parcels, but most of this pumping is by the boundary with the GHB so it is already sort of leaving that way, and there isn't much observation data to support it anyway.</t>
+  </si>
+  <si>
+    <t>Model review</t>
+  </si>
+  <si>
     <t>Rerun DAT input for 100 (1 hr)
 Rerun Connec3D (25 hr)
 Rerun regional setback distance (9 hr)
 -&gt; the regional high conductivity area plot has the same pattern and only slight differences in realization lines, the mean is consistent so the change in connec3d didn't significantly alter the results 
-Rerun the local results 1,2,3 (25 hr?)</t>
-  </si>
-  <si>
-    <t>Setup</t>
-  </si>
-  <si>
-    <t>I'm running the set up on my work laptop because only 10 realizations isn't too big of files</t>
-  </si>
-  <si>
-    <t>I found an error where I set the ET surface as the model top instead of the DEM elevations, essentially the ET was above land surface in inactive cells.
-I also found a major error becaues EVT should be suppled volumetric flux when I was using input which is why the rate was always so much smaller than it needed to be.</t>
-  </si>
-  <si>
-    <t>EVT Set up</t>
-  </si>
-  <si>
-    <t>I updated the EVT to use flux instead of rate and fixed the rooting depth so that it was variable from 4-10m again for the native vegetation.</t>
-  </si>
-  <si>
-    <t>After fixing the EVT the steady state starts much lower than it should because the model failed to converge in 500 iterations. The model recovered to the correct range of heads but tended to missing the peak streamflows as it was drawn down by the ET too much.
-I reset the native vegetation depth as 2m, and riparian native vegetation as 3m. Kept woodland at 10m and model fit was very good.</t>
-  </si>
-  <si>
-    <t>EVT</t>
-  </si>
-  <si>
-    <t>I removed EVT under the stream to try to improve the steady state and avoid excess drawdown directly below the stream but this led to the weird effect again where the steady state levels start really low. But removing EVT below SFR also improved runtime from 1 hr 20 to 28 min.</t>
-  </si>
-  <si>
-    <t>Set up</t>
-  </si>
-  <si>
-    <t>I removed the steady state period to avoid excessive drawdown on start up with new EVT input. No issues with water budget, 1 or two random steps with 2% error. Good fit with hydrographs (NSE&gt;0.5). The difference again though is that there is no baseflow occuring for most time steps which seems to be the fault of excessive ET or perhaps the fault of a change in stream elevation with the new model grid. I'm inclined to think it's an issue with the model grid being 2m steps now so the stream bottom is potentially being weird, but again it could just be higher ET rates with that 10 m rooting depth next to the stream.</t>
-  </si>
-  <si>
-    <t>One thing that might be worth addressing is whether we are overestimating ET by not including a lot pumping, this is only a concern if ET is evaluated in the results.</t>
+Rerun the local results 1,2,3 (27 hr)</t>
+  </si>
+  <si>
+    <t>The model seems to be running fairly slowly compared to previuosly (1 hr 20 min just to do 500 spd). In total it took 3 hr 44 min, mxiter 23 steps, 0% CME</t>
+  </si>
+  <si>
+    <t>Considering running a model with only 16 m of TPROGs to speed up the run since the extra geology did not improve model fit.</t>
+  </si>
+  <si>
+    <t>I'm going to try removing the low K from the deep geology based on the foothills in case this is causing issues.
+Going to just 16 m made run time 1 hr 18 min (I forgot to include the RCH package). Actually without any recharge the average model fit was better with some tails on the lower end of observations that became very undersimulated -20m to -60 m. Model fit went from 5.6E5 to 4.89E5 best improvement for a while.
+-&gt; the wells with the worse fit are those in the middle of the domestic well cluster wheree pumping rates were increased. (HOB nodes 5642, 6112,14626, 15314).
+-&gt; Meanwhile well 16733 maintained its inaccuracy still at 15-20m above observed, must be something about it's location in the foothills or connectivity to the river</t>
+  </si>
+  <si>
+    <t>I think I've finally discovered that with recharge removed there are still 4 wells that consistently over recharge. Two of them (16733, 4810) are actually screened below the model bottom which means they are in a deep aquifer. I think the issue might be the deep aquifer is actually supposed to have higher heads than the alluvium (think of Jan's note on change in heads with depth).</t>
+  </si>
+  <si>
+    <t>The HOB nodes 11448, 15343 with big increases in head are only in layer 2,3. The bigger issue must be that since the heads on the model boundary are 40m and the aquifer is relatively conductivity that heads are maintained higher than the initial gradient supplied. At the edge (N5056) heads are 40-&gt;35m then by 4810 heads are 26&gt;24 m and by N11448 and N16733 heads are 10-8m so in 11,500 m head drops 30 m which will only occur in low-conductivity geology.</t>
+  </si>
+  <si>
+    <t>Set constant 40 m at CHD instead of allowing some adjustment for elevation (was a range or 40-62m before). And instead of a variably defined deep geology use everything above column 230 as a low K unit.</t>
+  </si>
+  <si>
+    <t>After updating the models to improve fit, it seems there is not much baseflow in the model even when levee removal is present. We primarily care about the impact on dry season flows so similar to the heterogeneity analysis we should review net seepage, streamflow at the outlet, groundwater storage each fall, evapotranspiration.</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Preliminary results for one realization show limited difference on a daily scale, with differences most noticeable on monthly basis. ET is increased during late winter and early spring from the increased floodplain recharge and groundwater outflow is increased during the spring and summer in 2017. GW storage change is more positive in the baseline version in the winter but then more storage is lost in the late spring as the water is used up by ET. Following wet years, the baseline model shows limited baseflow for spring which corresponds to period with lower stream seepage as well.</t>
+  </si>
+  <si>
+    <t>I also noticed seep_vka was defined before updating the deep geology which meant more sfr recharge in the foothills than would happen as it was using TPROGs vka values instead.
+-&gt; adding a uniform low K unit in the foothills bring back a slight recharge mound but does drop heads from 42 m to 28 m so try doubling the distance to decrease another 15 m or so.
+* also during this period I reduced the extreme pumping (no longer multiplying domestic use by 4, scaled by acreage as a whole)
+-&gt; expanding the low K unit in the foothills improved fit slightly as it brought heads down a few meters more (after simulation heads are only 10 m too high instead of 20m), at this point it will require reducing the conductivity of this unit, start by 1/2 then 1/4 then 1/10</t>
+  </si>
+  <si>
+    <t>Streamflow output</t>
+  </si>
+  <si>
+    <t>Streamflow at the last segment shows reduced flows under the wet season and dry season compared to the version without reconnection. 
+When looking at the longitudinal plot, the baseline is the only version that has baseflow on average, and the no reconnection version has greater seepage on average specifically in the upstream part where the floodplain is. 
+The days with flow seems to indicate slightly more days with flow in the downstream portion, but nothing signficant.</t>
+  </si>
+  <si>
+    <t>The 1/2 conductivity gave a small improvement in error (0.5 m at well at edge of foothills). I went to try 1/10 of the mehrten conductivity next to look at something more extreme.
+Also looking at the XS shows that the low K unit deepens the pumping depression at the edge of the foothills but the middle parts of the domain are still seeing higher levels afterward which would be an issue with the recharge-pumping ratio.
+-&gt; groundwater elevation doesn't rise drastically in row 25 or 75 while row 50 shows the large jump which suggests to me that the issue might be excess streamflow recharge in that part of the domain which would be related to TPROGs realization and could be improved by increasing the clogging layer thickness or perhaps by changing storage coefficients.</t>
+  </si>
+  <si>
+    <t>HOB review</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Error went up slightly with decreasing foothills K because more water built up in the foothills. Also it seems that north side of the river has issue of not enough river still while south side has too much. It always seems to be a question of recharge, I'm going to go back to the soil water budget model and make sure the foothills and south cosumnes don't have excess percolation. 
+-&gt; a better review of recharge based on HOB output showed that there is no ET in the upper corners of the foothills which was causing large amounts of percolation at wells in the foothills. Additionally I switched to using a slope cutoff of 3% instead of elevation of 56 m to apply the max curve number to reduce recharge.</t>
+  </si>
+  <si>
+    <t>The percolation in the foothills look more reasonable, now it is up to just re-running the groundwater model to see if it is enough to avoid excess build up.</t>
+  </si>
+  <si>
+    <t>HOB in foothills no longer goes up as dramatically (lower error), but there still isn't much drawdown (too close to CHD?). 
+Wells that still have too much recharge: 16733, 15314, 15343, 14626, 8437,
+One well: 10746, 6458 is way under simulating, probably because it is stuck in a pumping depression in the low K foothills. 10746 is in the deepest layer so it is likely impacted by low K. 
+-&gt; next step is to bring up the deep geology coverage closer to the foothills and then after that bring up the HK again.
+-&gt; hard to know if it's worth trying to adjust recharge further on the south side vs north side</t>
+  </si>
+  <si>
+    <t>Recharge distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The wells that fit the best are the ones in the lower Cosumnes on Oneto-Denier which they rebound so much because they are inundating by flood waters and yet they are able to match heads which shows that overall the model has too much recharge and I should reduce it and then add floodplain connection to the oneto-denier area.
+-&gt; decreasing soil K helped reduce percolation a little bit (10%), not clear what else could reasonably be adjusted in the soil budget to reduce percolation.
+-&gt; also I increased the foothills K again which worsened fit. </t>
+  </si>
+  <si>
+    <t>Run ucode calibration with parameters of laguna, mehrten and foothills</t>
+  </si>
+  <si>
+    <t>Calibration</t>
+  </si>
+  <si>
+    <t>Calibration did not yield significant changes. Most likely an issue with model set up, in terms of UCODE an ill-formed problem. Next step is to consider changing shallow aquifer to a single unit, changing vertical anisotropy</t>
+  </si>
+  <si>
+    <t>Refinement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; Changing VANI from 100 to 10 didn't show significant changes, however, I left VANI as 10 to allow more vertical flow which occurs during pumping so that pumping signals are trapped in the deep aquifers.
+&gt; I adjusted the domestic pumping to multiply wells in Wilton by 2x as they tend to lack a pumping signal. The summed error went up slightly but the 1:1 plot look more centered on the 1:1 line, less over simulation in the central area. Wells on north side had very small simulation error. Wells like 14626 nd 15314 in the middle of wilton were matching very closely compared to before. Wells in the foothills like 15343 and 16733 were not improved noticeably, likely need lower HK of foothills to steepen the gradient.
+&gt; decreased foothills from 1E-6 to 1E-7 and extended outward further. Brought back extreme under simulation in 10746 and slightly improved other wells on south side of the Cosumnes. The issue might be that 10746 is in the deepest layer with low K and Ss so pumping depressions are extreme.
+&gt; Remove foothill parameter in bottom 2 layers to see if this removes the extreme effects in 10746, removed extreme effect
+&gt; going to increase Ss from 1E-4 to 1E-3 (upper of Fleckenstein) for Laguna/Mehrten to reduce extreme pumping/recharge swings in 15314 and 14626.
+</t>
+  </si>
+  <si>
+    <t>I brought back the steady state period because if I'm going to leave spots with high water levels then it is better for them to consistently over simulate instead of drastically increase with time.
+-&gt; with steady state levels arive at where they would be at the end of transient simulation for the foothills.
+I removed the SFR back from the name file 
+&gt; there is a huge depression in the model in steady state. This shows that the excess recharge is not coming from the recharge package but from stream infiltration. 
+To verify if this is caused by the TPROGs geology I will apply a uniform conductivity for the upper layers.
+&gt; 1:1 shows that with higher conductivity of shallow aquifer most wells are oversimulating now, the XS in row 50 still over simulated heads as well. 
+Going to further scale strhc1 by 1/10 to test effect on the whole domain.
+&gt; Oversimulation was improved, mostly in the middle domain. I'm going to return TPROGs as is with a scaling function for the location where the river overlies the deep geology generally</t>
+  </si>
+  <si>
+    <t>SFR Review</t>
+  </si>
+  <si>
+    <t>Returned to limited TPROGs near the surface, scaling all strhc1 by 1/10
+&gt; This led to a fair drop in groundwater elevations, in the middle a depression below 2014 levels grew and the foothills levels dropped a little as well. 
+This suggests that the solution is reducing SFR strhc1 in the foothills where tprogs may lead to overestimation as it is difficult to map exactly where the deep geology is.
+&gt; reducing under deep_geology averaged didn't bring down levels much
+Increased distance to reduce from column 150 (just below rooney)  to the foothills to see if that further reduced excess recharge.
+&gt; generally still had oversimulation, going to return to 1/30 for entire SFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After running all 100 realizations NSE/RMSE fit looks good if not better than previous version. Needed to update homogeneous run as well before plotting, found an issue in the code averaging hmean when bottom layer hadn't been defined caused a vka of 0 which made big errors in the model.
+</t>
+  </si>
+  <si>
+    <t>Scaled all the SFR vka by 1/30
+&gt; this still creates an excessively large pumping depression. I'm not sure why scaling from column 150 up didn't make as big of a dent.
+Let's try 1/30 for just above column 150
+&gt; now we see a small portion of the heads near the foothills levelling off and the 1:1 is looking better (less over simulation). Perhaps we need to scale the entire river by 1/2 and focus on the upper with 1/30.
+Spots where I upped domestic pumping now show too much drawdown so I'm going to remove that upscaling in Wilton. Add 1/2 seep vka to all and leaving additional 1/30 for upper. Also moved the column down to 120 instead of 150 to adjust by 1/30
+&gt; The upper foothills heads now fall below the 2014 line, the lower Cosumnes seem to over estimate still a little bit.
+Change from 1/2 to 1/4 and 1/30 to 1/15 to maintain 1/30 after extra 1/2.</t>
+  </si>
+  <si>
+    <t>Last step is to add back TPROGs to 64 meters instead of 16 m ( 3 hr model run) and then iterate over all realizations. I might be surpised that some realizations have a better fit and perhaps that seep vka scalign wasn't needed.</t>
+  </si>
+  <si>
+    <t>Since the SFR leakage updates improves fit slightly, but not entirely I will plan to leave the model as is and run parallel to pick the best fit. From there I will return to run a light calibration of streambed conductance and aquifer parameters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I question a little bit if I should apply the 1/10 reduction everywhere and add the floodplain which is what really should drive the recharge peaks in the lower cosumnes (except that data was upscaled to monthly so maybe it's not needed). The other piece is where we scale the coarse facies as 1/10 first. 
+After running the model for the 1/4 and 1/30 leakance the heads are centered around the 1:1 line but there are more heads strongly under simulating now, but there is not a consistent pattern. The pumping depression that formed on the north side is because of a nursery and a large size irrigated pasture. 
+I'm planning to run the model at 64 m of TPROGs review the output and then move forward
+</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helen pointed out in the meeting with SESYNC that Kc should linearly change from B-C and D-E so I updated the code to account for this, ET on average decreased. The mean went from 0.002 to 0.0011 and the peaks went from 0.005 to 0.004 m/day. Percolation increased from a time average of 6.1 m/day sum for the domain to 8.6 m/day, so a 30% increase. This increase was generally spatially located on the midlle north side of the river and in the south west by Galt and the floodplain. </t>
+  </si>
+  <si>
+    <t>The new pumping that is slightly lower led to slight too much water in again, but this can be corrected later by adjusting the SFR leakage ratio.</t>
+  </si>
+  <si>
+    <t>I tried to set up the input to write in parallel, I got a notice that np.core was unable to allocate 192 MB for the recharge array.
+I ended up just letting the jupyter notebook loop run which took 9 hrs, I think the recharge package slows things down the most?
+The actual model run in parallel only took 30 hours</t>
+  </si>
+  <si>
+    <t>After comparing the hob out for the test realization (89) to realization 89 produced by the parallel input the hydrographs don’t match up (all below where they were). Checking the water budget it is because there is no stream leakage into the model which looking at the packages was because sfr strhc1 was 0 for all reaches.</t>
+  </si>
+  <si>
+    <t>After running with the SFR package back the NSE values ranged from 0.425 to 0.625 although there was still offset from certain hydrographs the dynamics all match fairly well. R043 had the best NSE.
+The MW in the lower Cosumnes were underestimating summer lows and winter peaks likely because the EVt package is not active and because the floodplain is not included as a lake.</t>
+  </si>
+  <si>
+    <t>Add the EVT package for GDE EVT and the LAK package for the floodplain.</t>
+  </si>
+  <si>
+    <t>After doing a review of the output for some reason the 1-29 realizations show a scattered output while 0,30-99 show correct grouping of CCO. It seems after re-running the issue went away. It's unclear if the output had been run with an old dat file or if it had been run with the wrong executable.</t>
+  </si>
+  <si>
+    <t>Rerunning the realizations fixed the issue. Now going to rerun the vertical connectivity check and this time print out the impact of connec3d on the analysis for review of variability.</t>
+  </si>
+  <si>
+    <t>I tested a version with the coarse above land surface cropped out and it still only cropped out about 1% of coarse after vertical connectivity check (17.6-&gt;16.7 instead of 25.8 -&gt; 24.8). Although for realism purposes we should go ahead and crop data above land just in case there is an artifact where connectivity only exists because of above land connections.</t>
+  </si>
+  <si>
+    <t>Extended model bottom from -150 m to -200 m for the homogeneous bottom unit to include all pumping since I noticed the deepest wells in the domain were estimated at 180 m based on the interpolated ag well depth array. Re-ran both the baseline and no-reconnection after rewriting the BAS, DIS, WEL and GHB. The heads might have potentially changed in the BAS, GHB and the bottom elevations certainly did change in DIS and WEL changed because more spatial coverage of wells was included.</t>
+  </si>
+  <si>
+    <t>Setting up the EVT package was fairly quick and the model can run with it included.
+The updates to the SFR to include the LAK are more complicated.
+-&gt; with the EVT package inlcuded as is the model was running with max iterations and high error. The portion of water to ET was relatively high, greater than the stream leakage into the aquifer. (27E9 vs 19E9). Although biggest issue seems to be excess water leaving through the GHB.
+-&gt; heads seems very extreme, large peaks likely forcing water out of the GHB.</t>
+  </si>
+  <si>
+    <t>Rerun without EVT to see if perhaps some package was accidentally changed. It might be because I updated the geologic realization and didn't rewrite all the inputs? No, without EVT the model was fine so it's likely a question of the flux and rooting depth.</t>
   </si>
 </sst>
 </file>
@@ -1215,10 +1415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E4A244-E3B5-46CF-83BA-D24D8C870C37}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1247,188 +1447,455 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>45084</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
+        <v>45083</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>45077</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>45055</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>45054</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>45051</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>45051</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>45051</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>45050</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>45050</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>45049</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>45047</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>45046</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>45046</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>45045</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>45044</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>45044</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>45044</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>45044</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>45043</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>45043</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>45041</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
         <v>45029</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+    <row r="25" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
         <v>45028</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+    <row r="26" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
         <v>45027</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+    <row r="27" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
         <v>45027</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
         <v>45026</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+    <row r="29" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
         <v>45026</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+    <row r="30" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
         <v>45024</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="144" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+    <row r="31" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
         <v>45022</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+    <row r="32" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
         <v>45022</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+    <row r="33" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
         <v>45014</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="144" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+    <row r="34" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
         <v>45013</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+    <row r="35" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
         <v>45012</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+    <row r="36" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
         <v>44867</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+    <row r="37" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
         <v>44867</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+    <row r="38" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
         <v>44866</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+    <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
         <v>44725</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1439,7 +1906,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -1471,219 +1938,222 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>45037</v>
+        <v>45084</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>221</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>45037</v>
+        <v>45083</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>220</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
+        <v>45037</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>45037</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>45033</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G4">
+      <c r="G6">
         <f>(0.00014)*24/100</f>
         <v>3.3599999999999997E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>44930</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>44930</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>44919</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>44916</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>44900</v>
+        <v>44919</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
+        <v>44916</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>44900</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>44880</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>44900</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>44880</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>44875</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>44860</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
+        <v>44875</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>44860</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>44847</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+    <row r="17" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>44841</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+    <row r="18" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>44831</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E16">
+      <c r="E18">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>44826</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="144" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>44826</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44826</v>
       </c>
@@ -1691,63 +2161,54 @@
         <v>42</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>44812</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+    <row r="23" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>44777</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>44767</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="144" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>44764</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1755,35 +2216,66 @@
     </row>
     <row r="24" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>44764</v>
+        <v>44767</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
+        <v>44764</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>44764</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>44763</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E25">
+      <c r="E27">
         <v>1</v>
       </c>
     </row>
@@ -1795,10 +2287,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC7BF14-4A67-4FD5-AA17-58E63ADE83DF}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1823,68 +2315,68 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>45042</v>
+        <v>45050</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>127</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45042</v>
       </c>
       <c r="B3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>45042</v>
+      </c>
+      <c r="B4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>45041</v>
-      </c>
-      <c r="B4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45041</v>
       </c>
       <c r="B5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>45041</v>
+      </c>
+      <c r="B6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>45033</v>
-      </c>
-      <c r="B6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45033</v>
       </c>
@@ -1892,82 +2384,82 @@
         <v>145</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>45033</v>
+      </c>
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>45008</v>
-      </c>
-      <c r="B8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>45002</v>
       </c>
       <c r="B9" t="s">
         <v>191</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="B10" t="s">
         <v>191</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>45001</v>
+      </c>
+      <c r="B11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+    <row r="12" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>45000</v>
-      </c>
-      <c r="B11" t="s">
-        <v>188</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>44999</v>
       </c>
       <c r="B12" t="s">
         <v>188</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>44999</v>
+      </c>
+      <c r="B13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>44991</v>
-      </c>
-      <c r="B13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44991</v>
       </c>
@@ -1975,10 +2467,10 @@
         <v>174</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44991</v>
       </c>
@@ -1986,27 +2478,24 @@
         <v>174</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="B16" t="s">
         <v>174</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44988</v>
       </c>
@@ -2014,35 +2503,35 @@
         <v>174</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>44988</v>
+      </c>
+      <c r="B18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+    <row r="19" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>44985</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>179</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>44984</v>
-      </c>
-      <c r="B19" t="s">
-        <v>174</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44984</v>
       </c>
@@ -2050,82 +2539,82 @@
         <v>174</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44984</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44984</v>
       </c>
       <c r="B22" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="B23" t="s">
         <v>127</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>44980</v>
+      </c>
+      <c r="B24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>44979</v>
-      </c>
-      <c r="B24" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>44979</v>
       </c>
       <c r="B25" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>44978</v>
+        <v>44979</v>
       </c>
       <c r="B26" t="s">
         <v>159</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>44978</v>
       </c>
@@ -2133,38 +2622,41 @@
         <v>159</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>44978</v>
+      </c>
+      <c r="B28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>44977</v>
-      </c>
-      <c r="B28" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>44977</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>44977</v>
       </c>
@@ -2172,195 +2664,195 @@
         <v>151</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>44977</v>
+      </c>
+      <c r="B31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+    <row r="32" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
         <v>44976</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>145</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+    <row r="33" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>44973</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>44975</v>
-      </c>
-      <c r="B33" t="s">
-        <v>145</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>44975</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>44973</v>
+        <v>44975</v>
       </c>
       <c r="B35" t="s">
         <v>89</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>44971</v>
+        <v>44973</v>
       </c>
       <c r="B36" t="s">
         <v>89</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>44971</v>
       </c>
       <c r="B37" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>44971</v>
       </c>
       <c r="B38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>44971</v>
+      </c>
+      <c r="B39" t="s">
         <v>135</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+    <row r="40" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
         <v>44967</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>138</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>44964</v>
-      </c>
-      <c r="B40" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>44964</v>
       </c>
       <c r="B41" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>44964</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>44964</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>44964</v>
       </c>
       <c r="B44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>44964</v>
+      </c>
+      <c r="B45" t="s">
         <v>129</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <v>44963</v>
-      </c>
-      <c r="B45" t="s">
-        <v>127</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>44963</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -2368,13 +2860,13 @@
         <v>44963</v>
       </c>
       <c r="B47" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>44963</v>
       </c>
@@ -2382,76 +2874,76 @@
         <v>120</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>44963</v>
+      </c>
+      <c r="B49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>44959</v>
-      </c>
-      <c r="B49" t="s">
-        <v>122</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>44959</v>
       </c>
       <c r="B50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B51" t="s">
         <v>120</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
-        <v>44958</v>
-      </c>
-      <c r="B51" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>44955</v>
+        <v>44958</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>44955</v>
       </c>
       <c r="B53" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>44955</v>
+      </c>
+      <c r="B54" t="s">
         <v>115</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
-        <v>44953</v>
-      </c>
-      <c r="B54" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>44953</v>
       </c>
@@ -2459,18 +2951,18 @@
         <v>103</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>44952</v>
+        <v>44953</v>
       </c>
       <c r="B56" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -2478,46 +2970,46 @@
         <v>44952</v>
       </c>
       <c r="B57" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>44952</v>
+      </c>
+      <c r="B58" t="s">
         <v>110</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+    <row r="59" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
         <v>44951</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>108</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
-        <v>44949</v>
-      </c>
-      <c r="B59" t="s">
-        <v>89</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>44949</v>
       </c>
       <c r="B60" t="s">
-        <v>103</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>44949</v>
       </c>
@@ -2525,10 +3017,10 @@
         <v>103</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>44949</v>
       </c>
@@ -2536,7 +3028,7 @@
         <v>103</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2544,35 +3036,35 @@
         <v>44949</v>
       </c>
       <c r="B63" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>44944</v>
+        <v>44949</v>
       </c>
       <c r="B64" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>44944</v>
       </c>
       <c r="B65" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>44944</v>
       </c>
@@ -2580,43 +3072,43 @@
         <v>96</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>44944</v>
       </c>
       <c r="B67" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>44944</v>
       </c>
       <c r="B68" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>44944</v>
       </c>
       <c r="B69" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>44944</v>
       </c>
@@ -2624,17 +3116,28 @@
         <v>89</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>44944</v>
       </c>
       <c r="B71" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B72" t="s">
         <v>87</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2645,7 +3148,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9157488-9F56-454D-A4D5-1DAD0DE24A20}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -2654,7 +3157,8 @@
   <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="68.109375" customWidth="1"/>
+    <col min="3" max="3" width="86.6640625" customWidth="1"/>
+    <col min="4" max="4" width="43.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -2671,41 +3175,89 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
+        <v>45084</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>45044</v>
+      </c>
+      <c r="B3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>45044</v>
+      </c>
+      <c r="B4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>45044</v>
+      </c>
+      <c r="B5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>45040</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>44981</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B7" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>44981</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2717,7 +3269,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Projects/model_documentation.xlsx
+++ b/Projects/model_documentation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F4146A-8E20-4F40-A1FE-3F308AB02991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020F02CC-B0C7-4D45-A589-3C252832119E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="historical_calibration" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="289">
   <si>
     <t>Date</t>
   </si>
@@ -1066,6 +1066,21 @@
   </si>
   <si>
     <t>Rerun without EVT to see if perhaps some package was accidentally changed. It might be because I updated the geologic realization and didn't rewrite all the inputs? No, without EVT the model was fine so it's likely a question of the flux and rooting depth.</t>
+  </si>
+  <si>
+    <t>Generally updated figures to align with comments from Helen. I tested the different recharge and HCP area plotting recommendations from Helen (scale by the recharge/area at 0 m distance or scale by the setback distance area to return the effective rate of recharge/or effective area fraction, but both of these returned similar plots that didn't help explain the results. Dividing by the 0 m setback made the results almost flat with little variability and dividing by setback area made the 0 m setback (200 m width total) the most valuable because the area is so small.</t>
+  </si>
+  <si>
+    <t>Looked at Rwhet and PAR2 as options for particle tracking but they would be more complicated than necessary so MODPATH should do, also the PAR2 requires the MT3DS link file ftl which is 44GB so a pretty huge file. And MODPATH should be reduced to only particle releases during flood events as we want to see how the recharged water paths differ in scenarios. The simple modpath shows the path of particles leaving the river, not sure the best way to difference or compare yet between scenarios, although looking at total distance traveled or the number that end up in ET,GHB or WEL seems good.</t>
+  </si>
+  <si>
+    <t>Floodplain</t>
+  </si>
+  <si>
+    <t>After inserting the floodplain and running the model, there was a huge mound in the foothills, even when removing the floodplain this remained which made me think it was a geologic issue. The tprogs facies arrays matched but I noticed that the calibration python script was doing upscaling from the bottom up which wouldn't align with the actual elevations. This shouldn't significantly impact recharge except for the drainage from foothills to the alluvium. I'm going to re-run the model with the new geology with a larger K in the foothills (1E-8 to 1E-6 since mehrten K was already 1e-5)</t>
+  </si>
+  <si>
+    <t>With the updated upscaling code and the original parameters they both now show the extreme levels which means the foothills K needs to be increased. Fixed the issue for the regular model, . It would be interesting to see if the complex geology definition (using elevation) worked better now, but for model parsimony it is better to use the simple foothill boundary since we don't have water level data to justify something more complex.</t>
   </si>
 </sst>
 </file>
@@ -1415,10 +1430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E4A244-E3B5-46CF-83BA-D24D8C870C37}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1447,224 +1462,221 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
+        <v>45100</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>45100</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>45084</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+    <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>45083</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>45077</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>45055</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>45054</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>45051</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>127</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
-        <v>45051</v>
+        <v>45054</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>45051</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>264</v>
+        <v>127</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
-        <v>45050</v>
+        <v>45051</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>264</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>265</v>
+        <v>270</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
+        <v>45051</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
         <v>45050</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>45050</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="216" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
         <v>45049</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
         <v>45047</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>45046</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>45046</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
+        <v>45046</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>45046</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
         <v>45045</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>45044</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>45044</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>45044</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
@@ -1675,227 +1687,252 @@
         <v>236</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>45044</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>45043</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+    <row r="24" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
         <v>45043</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+    <row r="25" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
         <v>45041</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+    <row r="26" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
         <v>45029</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+    <row r="27" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
         <v>45028</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
+    <row r="28" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
         <v>45027</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
+    <row r="29" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
         <v>45027</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
         <v>45026</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
+    <row r="31" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
         <v>45026</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
-        <v>45024</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <v>45022</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
+        <v>45024</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
         <v>45022</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>45022</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
+    <row r="35" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
         <v>45014</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
+    <row r="36" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
         <v>45013</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
+    <row r="37" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
         <v>45012</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
+    <row r="38" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
         <v>44867</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
+    <row r="39" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
         <v>44867</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
+    <row r="40" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
         <v>44866</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
+    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
         <v>44725</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1906,10 +1943,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1938,233 +1975,233 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>45084</v>
+        <v>45089</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>245</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>45083</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>45037</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45037</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>45037</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="7" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>45033</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <f>(0.00014)*24/100</f>
         <v>3.3599999999999997E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>44930</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44930</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>44930</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>44919</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>44916</v>
+        <v>44919</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>44900</v>
+        <v>44916</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44900</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>44900</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+    <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>44880</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>44875</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>44860</v>
+        <v>44875</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>44847</v>
+        <v>44860</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>44847</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>44841</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
+        <v>44841</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>44831</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>44826</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44826</v>
       </c>
@@ -2172,10 +2209,10 @@
         <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44826</v>
       </c>
@@ -2183,99 +2220,110 @@
         <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>44812</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+    <row r="24" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>44777</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>44767</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>44764</v>
+        <v>44767</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>44764</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
+        <v>44764</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>44763</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>1</v>
       </c>
     </row>
@@ -3148,10 +3196,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9157488-9F56-454D-A4D5-1DAD0DE24A20}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3177,73 +3225,73 @@
     </row>
     <row r="2" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
+        <v>45098</v>
+      </c>
+      <c r="B2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>45084</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>45044</v>
-      </c>
-      <c r="B3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45044</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45044</v>
       </c>
       <c r="B5" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>45040</v>
+        <v>45044</v>
       </c>
       <c r="B6" t="s">
         <v>222</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>45040</v>
+      </c>
+      <c r="B7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>44981</v>
-      </c>
-      <c r="B7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -3252,12 +3300,24 @@
         <v>44981</v>
       </c>
       <c r="B8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>44981</v>
+      </c>
+      <c r="B9" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Projects/model_documentation.xlsx
+++ b/Projects/model_documentation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020F02CC-B0C7-4D45-A589-3C252832119E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751BF900-33DD-4D53-96F2-44B5C288624C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="historical_calibration" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="298">
   <si>
     <t>Date</t>
   </si>
@@ -1081,6 +1081,44 @@
   </si>
   <si>
     <t>With the updated upscaling code and the original parameters they both now show the extreme levels which means the foothills K needs to be increased. Fixed the issue for the regular model, . It would be interesting to see if the complex geology definition (using elevation) worked better now, but for model parsimony it is better to use the simple foothill boundary since we don't have water level data to justify something more complex.</t>
+  </si>
+  <si>
+    <t>Reran all 100 with GHB heads sampled at 500 m away, for r000 this does increase outflow through the boundary leading to slightly lower baseflow.</t>
+  </si>
+  <si>
+    <t>Replot results</t>
+  </si>
+  <si>
+    <t>1. Graham wanted to see the homogeneous case better defined with permeameter test to create an effective K value, it may be better to simply remove the homogeneous case and zoom in on heterogeneity variability only.
+2. Graham was concerned about double counting of ET in the recharge calculation and within the model.
+-&gt; Need to quantify how much ET is actually double counted because in the wet season ET is lower. The simplest solution is to directly apply the rainfall to the aquifer in locations where aquifer connection is frequent (GDE areas)
+3. Need to clarify the BC descriptions in the appendix. Provide justification for choices.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The GHB set at 500 m is still very close to the model edge, the center of galt is about 2000 m from the model edge, it's about 5,000 m to Elk Grove and/or 7,000 m from the Sacramento River. Upstream it begins shifting to ag soon after so the distance is not as important.
+-&gt; it seems that the 500 m distance is abritrary and if we are looking at head 500 m away then we would need to be averaging hydraulic conductivity over that distance across cells, I'm not sure if this requires something like a permeameter test on all boundaries as well or simply applying the arithmetic mean. The best solution for a starting point would be sampling heads at 0 m then if we want to become more complicated there are options but this might be boundary specific.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET Check:
+1. Calculate Eta taken from the soil water budget, simple way is to plot precip vs total deep percolation with a cumulative sum.
+2. A simple check also would be to run the model with rain instead of deep percolation and look at the impact on ET, stream seepage, and GW outflow
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I designed the SWB to reduce deep percolation as plain rainfall tends to overestimate the amount that arrives in the aquifer, but in these zones the rain in the soil zone is already quite close to the aquifer and ET down to 4-10 m will likely be able to pull whatever water is needed.
+-&gt; the preliminary work shows deep percolation is much smaller than rainfall and that ET takes most of the outflow of the SWB, thus we should stop double withdrawal of ET by applying rainfall directly instead of deep percolation. Runoff was only 10% in most cases anyway, and if this water goes into the aquifer it would then be moved to the stream potentially, the only loss of effect would be the timing of flow to the stream but in the floodplain that water would only run to the outlet. Groundwater can drain to the lake as well so it is best to put the water in the groundwater system and then let it route through. </t>
+  </si>
+  <si>
+    <t>Apply precipitation instead of deep peroclation from the soil water budget in zones where rooting depth is &gt; 2m (GDE locations). The other consideration might be too remove the VKA limit on recharge.</t>
+  </si>
+  <si>
+    <t>**Comparing water budget sum**  
+Switching from percolation to rain directly in for the GDE locations, saw 0.42x pumping out, 1.14x ET , 1.05x sfr out, 1.37x gw out, 1.77x recharge, 0.57 GW in, 0.97 sfr in, 0.97 lak in. Very slight reduction in SFR/LAK in due to higher gw levels likely (same with GW out and sfr out). More water to ET out for the same reason. The flashier input of precip might make less water available for pumping?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It seems like setting the GHB to the boundary with heads with a distance of 1m leads to more extreme impacts of changing heads but the model responds vary quickly, but this suggests a need to have daily changes in heads instead of monthly. The differences are most significant with the outflow (heads lowering in the summer), the head increases in winter have less significant differences between the distances of 1m and 500 m.
+-&gt; due to the impact of these changes I think it is best to wait and discuss with Graham exactly what distance we should set and provide justification. The focus should be the ET first since that can be justified more readily. The main piece that can be updated is switching to daily changing heads to be more precise. </t>
   </si>
 </sst>
 </file>
@@ -1432,7 +1470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E4A244-E3B5-46CF-83BA-D24D8C870C37}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2335,10 +2373,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC7BF14-4A67-4FD5-AA17-58E63ADE83DF}">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2363,819 +2401,828 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
+        <v>45125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>45125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>45125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>45123</v>
+      </c>
+      <c r="B5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>45050</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B8" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="9" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>45042</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B9" t="s">
         <v>230</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>45042</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B10" t="s">
         <v>228</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="11" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>45041</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B11" t="s">
         <v>225</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>45041</v>
-      </c>
-      <c r="B6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>45033</v>
-      </c>
-      <c r="B7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>45033</v>
-      </c>
-      <c r="B8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>45008</v>
-      </c>
-      <c r="B9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>45002</v>
-      </c>
-      <c r="B10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>45001</v>
-      </c>
-      <c r="B11" t="s">
-        <v>191</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
+        <v>45041</v>
+      </c>
+      <c r="B12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>45033</v>
+      </c>
+      <c r="B13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>45033</v>
+      </c>
+      <c r="B14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>45008</v>
+      </c>
+      <c r="B15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>45002</v>
+      </c>
+      <c r="B16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>45001</v>
+      </c>
+      <c r="B17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>45000</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B18" t="s">
         <v>188</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+    <row r="19" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>44999</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B19" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>44991</v>
-      </c>
-      <c r="B14" t="s">
-        <v>174</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>44991</v>
-      </c>
-      <c r="B15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>44991</v>
-      </c>
-      <c r="B16" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>44988</v>
-      </c>
-      <c r="B17" t="s">
-        <v>174</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>44988</v>
-      </c>
-      <c r="B18" t="s">
-        <v>174</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>44985</v>
-      </c>
-      <c r="B19" t="s">
-        <v>179</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>44984</v>
       </c>
       <c r="B20" t="s">
         <v>174</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>44984</v>
+        <v>44991</v>
       </c>
       <c r="B21" t="s">
         <v>174</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>44991</v>
+      </c>
+      <c r="B22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>44988</v>
+      </c>
+      <c r="B23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>44988</v>
+      </c>
+      <c r="B24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>44985</v>
+      </c>
+      <c r="B25" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>44984</v>
+      </c>
+      <c r="B26" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>44984</v>
+      </c>
+      <c r="B27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>44984</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B28" t="s">
         <v>173</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+    <row r="29" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>44984</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B29" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>44980</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B30" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>44979</v>
-      </c>
-      <c r="B25" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>44979</v>
-      </c>
-      <c r="B26" t="s">
-        <v>159</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>44978</v>
-      </c>
-      <c r="B27" t="s">
-        <v>159</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>44978</v>
-      </c>
-      <c r="B28" t="s">
-        <v>159</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>44977</v>
-      </c>
-      <c r="B29" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>44977</v>
-      </c>
-      <c r="B30" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
+        <v>44979</v>
+      </c>
+      <c r="B31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>44979</v>
+      </c>
+      <c r="B32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>44978</v>
+      </c>
+      <c r="B33" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>44978</v>
+      </c>
+      <c r="B34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
         <v>44977</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>44977</v>
+      </c>
+      <c r="B36" t="s">
         <v>151</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C36" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>44977</v>
+      </c>
+      <c r="B37" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+    <row r="38" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
         <v>44976</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B38" t="s">
         <v>145</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+    <row r="39" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
         <v>44973</v>
-      </c>
-      <c r="B33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>44975</v>
-      </c>
-      <c r="B34" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>44975</v>
-      </c>
-      <c r="B35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>44973</v>
-      </c>
-      <c r="B36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>44971</v>
-      </c>
-      <c r="B37" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>44971</v>
-      </c>
-      <c r="B38" t="s">
-        <v>139</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>44971</v>
       </c>
       <c r="B39" t="s">
         <v>135</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>44967</v>
+        <v>44975</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>44964</v>
+        <v>44975</v>
       </c>
       <c r="B41" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>44964</v>
+        <v>44973</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>44964</v>
+        <v>44971</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
+        <v>44971</v>
+      </c>
+      <c r="B44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>44971</v>
+      </c>
+      <c r="B45" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>44967</v>
+      </c>
+      <c r="B46" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
         <v>44964</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B47" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>44964</v>
+      </c>
+      <c r="B48" t="s">
         <v>122</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+      <c r="C48" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
         <v>44964</v>
-      </c>
-      <c r="B45" t="s">
-        <v>129</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
-        <v>44963</v>
-      </c>
-      <c r="B46" t="s">
-        <v>127</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>44963</v>
-      </c>
-      <c r="B47" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <v>44963</v>
-      </c>
-      <c r="B48" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>44963</v>
       </c>
       <c r="B49" t="s">
         <v>120</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="B50" t="s">
         <v>122</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="B51" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>44958</v>
+        <v>44963</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>44955</v>
+        <v>44963</v>
       </c>
       <c r="B53" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>44955</v>
+        <v>44963</v>
       </c>
       <c r="B54" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
+        <v>44963</v>
+      </c>
+      <c r="B55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>44955</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>44955</v>
+      </c>
+      <c r="B60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
         <v>44953</v>
-      </c>
-      <c r="B55" t="s">
-        <v>103</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
-        <v>44953</v>
-      </c>
-      <c r="B56" t="s">
-        <v>103</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
-        <v>44952</v>
-      </c>
-      <c r="B57" t="s">
-        <v>101</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
-        <v>44952</v>
-      </c>
-      <c r="B58" t="s">
-        <v>110</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
-        <v>44951</v>
-      </c>
-      <c r="B59" t="s">
-        <v>108</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
-        <v>44949</v>
-      </c>
-      <c r="B60" t="s">
-        <v>89</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
-        <v>44949</v>
       </c>
       <c r="B61" t="s">
         <v>103</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>44949</v>
+        <v>44953</v>
       </c>
       <c r="B62" t="s">
         <v>103</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>44952</v>
+      </c>
+      <c r="B63" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>44952</v>
+      </c>
+      <c r="B64" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>44951</v>
+      </c>
+      <c r="B65" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>44949</v>
+      </c>
+      <c r="B66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>44949</v>
+      </c>
+      <c r="B67" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>44949</v>
+      </c>
+      <c r="B68" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+    <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
         <v>44949</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B69" t="s">
         <v>103</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
+    <row r="70" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
         <v>44949</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B70" t="s">
         <v>101</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
-        <v>44944</v>
-      </c>
-      <c r="B65" t="s">
-        <v>99</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
-        <v>44944</v>
-      </c>
-      <c r="B66" t="s">
-        <v>96</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
-        <v>44944</v>
-      </c>
-      <c r="B67" t="s">
-        <v>96</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
-        <v>44944</v>
-      </c>
-      <c r="B68" t="s">
-        <v>94</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
-        <v>44944</v>
-      </c>
-      <c r="B69" t="s">
-        <v>92</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
-        <v>44944</v>
-      </c>
-      <c r="B70" t="s">
-        <v>89</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>44944</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -3183,9 +3230,75 @@
         <v>44944</v>
       </c>
       <c r="B72" t="s">
+        <v>96</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B73" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B74" t="s">
+        <v>94</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B75" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B76" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B77" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B78" t="s">
         <v>87</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>86</v>
       </c>
     </row>

--- a/Projects/model_documentation.xlsx
+++ b/Projects/model_documentation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751BF900-33DD-4D53-96F2-44B5C288624C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D747306F-69A5-40FF-AD00-5CE247D9520B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="historical_calibration" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="304">
   <si>
     <t>Date</t>
   </si>
@@ -1119,6 +1119,25 @@
   <si>
     <t xml:space="preserve">It seems like setting the GHB to the boundary with heads with a distance of 1m leads to more extreme impacts of changing heads but the model responds vary quickly, but this suggests a need to have daily changes in heads instead of monthly. The differences are most significant with the outflow (heads lowering in the summer), the head increases in winter have less significant differences between the distances of 1m and 500 m.
 -&gt; due to the impact of these changes I think it is best to wait and discuss with Graham exactly what distance we should set and provide justification. The focus should be the ET first since that can be justified more readily. The main piece that can be updated is switching to daily changing heads to be more precise. </t>
+  </si>
+  <si>
+    <t>WEL/RCH</t>
+  </si>
+  <si>
+    <t>Adding irrigation efficiency increased the recharge and pumping, although it seems like more water ended up percolating than previously through the soil water budget likely because of the existing saturated conditions when leading up to rainfall events. Heads in the simulation were slightly higher than they should have been.</t>
+  </si>
+  <si>
+    <t>When reviewing the groundwater contours there is no location northwest or southeast of the domain where there is a consistent gradient to/from the domain. The issue at Elk Grove is there is a slight trend to the domain but the direction is not consistent and at the domain the contour lines are perpendicular to the domain which suggests no flow boundary. The issue at Galt is again that at the model edge the contours are generally perpendicular so no flow, but as one goes further away you see flow toward the depression but this would be an ill match because the depression is outside the domain. Originally the GHB sides was added because Laura/Maribeth wanted to represent the depressions, but in fact they may be better represented by the pumping within the domain now that it includes domestic wells and some municipal pumping.
+-&gt; Graham was correct in suggesting to review the contours. I'm considering that the GHB on the boundary was allowing excess flow in which kept the wells from drawing down.</t>
+  </si>
+  <si>
+    <t>Geology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After Alisha was concerned about the loading of the geology into flopy we reviewed the shaping of the array and found that we needed to add a flip along the x-axis to make sure the output geology array was correctly oriented. </t>
+  </si>
+  <si>
+    <t>Running the simulation without the nortwest and southeast GHB didn't significantly change results although the pumping depression was less noticeable.</t>
   </si>
 </sst>
 </file>
@@ -1468,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E4A244-E3B5-46CF-83BA-D24D8C870C37}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1500,246 +1519,243 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
+        <v>45138</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>45137</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>45136</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>45100</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>45100</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>45084</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>45083</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>45100</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>45084</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>45083</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>45077</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>45055</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>45054</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
-        <v>45051</v>
+        <v>45077</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>127</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>45055</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>45054</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>45051</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+    <row r="13" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
         <v>45051</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+    <row r="14" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
         <v>45051</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+    <row r="15" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
         <v>45050</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+    <row r="16" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
         <v>45050</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" ht="216" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
         <v>45049</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
         <v>45047</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+    <row r="19" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
         <v>45046</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+    <row r="20" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
         <v>45046</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+    <row r="21" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
         <v>45045</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>45044</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>45044</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>45044</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
@@ -1747,230 +1763,266 @@
         <v>45044</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>45044</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>45043</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+    <row r="27" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
         <v>45043</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+    <row r="28" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
         <v>45041</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
+    <row r="29" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
         <v>45029</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
+    <row r="30" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
         <v>45028</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
+    <row r="31" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
         <v>45027</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
+    <row r="32" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
         <v>45027</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
         <v>45026</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
+    <row r="34" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
         <v>45026</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
+    <row r="35" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
         <v>45024</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
-        <v>45022</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
-        <v>45022</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
-        <v>45014</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
+        <v>45022</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>45022</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>45014</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
         <v>45013</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
+    <row r="40" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
         <v>45012</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
+    <row r="41" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
         <v>44867</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
+    <row r="42" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
         <v>44867</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A40" s="5">
+    <row r="43" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
         <v>44866</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="5">
+    <row r="44" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
         <v>44725</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2375,7 +2427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC7BF14-4A67-4FD5-AA17-58E63ADE83DF}">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -3442,7 +3494,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3470,10 +3522,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>45138</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>302</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
     </row>

--- a/Projects/model_documentation.xlsx
+++ b/Projects/model_documentation.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D747306F-69A5-40FF-AD00-5CE247D9520B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B084CBC6-53BC-439F-AE4A-4EE867E74734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="308">
   <si>
     <t>Date</t>
   </si>
@@ -1137,7 +1137,30 @@
     <t xml:space="preserve">After Alisha was concerned about the loading of the geology into flopy we reviewed the shaping of the array and found that we needed to add a flip along the x-axis to make sure the output geology array was correctly oriented. </t>
   </si>
   <si>
-    <t>Running the simulation without the nortwest and southeast GHB didn't significantly change results although the pumping depression was less noticeable.</t>
+    <t>To the southeast the contours are consistently perpendicular to the model edge at about 5 km in line with Galt. 
+It takes 20 km upstream to find the consistent gradient in the upper Cosumnes and be out of the pumping depression. 
+To the northwest the contours are regular 10 km away, toward the Sacramento river area.
+Also I might more realistically call the Delta 20 km not, 5 km away</t>
+  </si>
+  <si>
+    <t>Running the simulation without the nortwest and southeast GHB didn't significantly change results although the pumping depression was less noticeable.
+On the southeast, 5 km away places the boundary just on the other side of the Galt pumping depression which would help keep it consistent.
+On the northwest 5 km is fairly reasonable as well although gradients are milder so less consistent. 
+-&gt; setting the heads at 5 km away with an averaged conductance made the flux for groundwater flow very small</t>
+  </si>
+  <si>
+    <t>I realized that the irrigation efficiency with applied water was being applied to all ETc cells not just the ag so I adjusted it to agriculture only which reduced the extremeness of some cells increasing over time at the penalty of some cells seeing more severe reductions in head over time than are there actually. Overall the model fit is more centered. 
+-&gt; also it seems clearer now that HOB wells 12944 and 13407 seem to beheavily influenced by recharging water from the stream which is why they also may not drawdown.</t>
+  </si>
+  <si>
+    <t>GEL</t>
+  </si>
+  <si>
+    <t>I agenerally thinking after flipping it there is a clearer pattern of greater recharge vs pumping along the lines of Deer Ck and the Cosumnes likely because those areas should have higher conductivity to allow more recharge which aligns better after flipping the geology along the y-axis perhaps.
+-&gt; HOB patterns are that wells near the foothills tend to overdraw down likely due to low Ss/Sy and low K unit
+-&gt; wells along south side of the river tend to oversimulate still. likely because of gravel pathways. 
+** Should run the model for all 100 realizations again to see if the flipped geology and irrigiation efficiencies make a difference in best fit.
+** Also should test steady state period</t>
   </si>
 </sst>
 </file>
@@ -1487,10 +1510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E4A244-E3B5-46CF-83BA-D24D8C870C37}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1519,279 +1542,276 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
+        <v>45140</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>45140</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>45138</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="144" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="C4" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>45137</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>45136</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>45100</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+    <row r="8" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <v>45100</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+    <row r="9" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <v>45084</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+    <row r="10" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
         <v>45083</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
         <v>45077</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+    <row r="12" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
         <v>45055</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>45054</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>45051</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>127</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
-        <v>45051</v>
+        <v>45054</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>45051</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>264</v>
+        <v>127</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
-        <v>45050</v>
+        <v>45051</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>264</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>265</v>
+        <v>270</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
+        <v>45051</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
         <v>45050</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>45050</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" ht="216" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
         <v>45049</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+    <row r="20" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
         <v>45047</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>45046</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>45046</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
+        <v>45046</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>45046</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
         <v>45045</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>45044</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <v>45044</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>45044</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
@@ -1802,227 +1822,252 @@
         <v>236</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>45044</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>45043</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
+    <row r="29" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
         <v>45043</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
+    <row r="30" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
         <v>45041</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
+    <row r="31" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
         <v>45029</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
+    <row r="32" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
         <v>45028</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
+    <row r="33" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
         <v>45027</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
+    <row r="34" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
         <v>45027</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
         <v>45026</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
+    <row r="36" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
         <v>45026</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
-        <v>45024</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
-        <v>45022</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
+        <v>45024</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
         <v>45022</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B38" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>45022</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
+    <row r="40" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
         <v>45014</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
+    <row r="41" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
         <v>45013</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="5">
+    <row r="42" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
         <v>45012</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="5">
+    <row r="43" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
         <v>44867</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="5">
+    <row r="44" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
         <v>44867</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
+    <row r="45" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
         <v>44866</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B45" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="5">
+    <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
         <v>44725</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2425,10 +2470,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC7BF14-4A67-4FD5-AA17-58E63ADE83DF}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2453,248 +2498,237 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>45125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
     <row r="3" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>45125</v>
+        <v>45138</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>135</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45125</v>
       </c>
       <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>45125</v>
+      </c>
+      <c r="B5" t="s">
         <v>271</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>45125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="7" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>45123</v>
-      </c>
-      <c r="B5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>45118</v>
-      </c>
-      <c r="B6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>45118</v>
       </c>
       <c r="B7" t="s">
         <v>261</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="10" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>45050</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+    <row r="11" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>45042</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>230</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+    <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>45042</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>228</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+    <row r="13" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>45041</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>225</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+    <row r="14" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>45041</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>225</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>45033</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+    <row r="16" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>45033</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>45008</v>
-      </c>
-      <c r="B15" t="s">
-        <v>191</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>45002</v>
-      </c>
-      <c r="B16" t="s">
-        <v>191</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>45001</v>
       </c>
       <c r="B17" t="s">
         <v>191</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>45002</v>
+      </c>
+      <c r="B18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>45001</v>
+      </c>
+      <c r="B19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+    <row r="20" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>45000</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>188</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+    <row r="21" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>44999</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>188</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>44991</v>
-      </c>
-      <c r="B20" t="s">
-        <v>174</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>44991</v>
-      </c>
-      <c r="B21" t="s">
-        <v>174</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44991</v>
       </c>
@@ -2702,340 +2736,340 @@
         <v>174</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="B23" t="s">
         <v>174</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="B24" t="s">
         <v>174</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>44985</v>
+        <v>44988</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>44984</v>
+        <v>44988</v>
       </c>
       <c r="B26" t="s">
         <v>174</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B27" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>44984</v>
       </c>
       <c r="B28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>44984</v>
       </c>
       <c r="B29" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
+        <v>44984</v>
+      </c>
+      <c r="B30" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>44984</v>
+      </c>
+      <c r="B31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
         <v>44980</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>127</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+    <row r="33" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>44979</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>135</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+    <row r="34" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
         <v>44979</v>
-      </c>
-      <c r="B32" t="s">
-        <v>159</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>44978</v>
-      </c>
-      <c r="B33" t="s">
-        <v>159</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>44978</v>
       </c>
       <c r="B34" t="s">
         <v>159</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>44978</v>
+      </c>
+      <c r="B35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>44978</v>
+      </c>
+      <c r="B36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>44977</v>
-      </c>
-      <c r="B35" t="s">
-        <v>135</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>44977</v>
-      </c>
-      <c r="B36" t="s">
-        <v>151</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>44977</v>
       </c>
       <c r="B37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>44977</v>
+      </c>
+      <c r="B38" t="s">
         <v>151</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>44977</v>
+      </c>
+      <c r="B39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>44976</v>
-      </c>
-      <c r="B38" t="s">
-        <v>145</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>44973</v>
-      </c>
-      <c r="B39" t="s">
-        <v>135</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>44975</v>
+        <v>44976</v>
       </c>
       <c r="B40" t="s">
         <v>145</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>44973</v>
+      </c>
+      <c r="B41" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>44975</v>
+      </c>
+      <c r="B42" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+    <row r="43" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
         <v>44975</v>
-      </c>
-      <c r="B41" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>44973</v>
-      </c>
-      <c r="B42" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>44971</v>
       </c>
       <c r="B43" t="s">
         <v>89</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>44971</v>
+        <v>44973</v>
       </c>
       <c r="B44" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44971</v>
       </c>
       <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>44971</v>
+      </c>
+      <c r="B46" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>44971</v>
+      </c>
+      <c r="B47" t="s">
         <v>135</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+    <row r="48" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
         <v>44967</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B48" t="s">
         <v>138</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>44964</v>
-      </c>
-      <c r="B47" t="s">
-        <v>134</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <v>44964</v>
-      </c>
-      <c r="B48" t="s">
-        <v>122</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>44964</v>
       </c>
       <c r="B49" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>44964</v>
       </c>
@@ -3043,194 +3077,194 @@
         <v>122</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>44964</v>
       </c>
       <c r="B51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>44964</v>
+      </c>
+      <c r="B52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>44964</v>
+      </c>
+      <c r="B53" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
-        <v>44963</v>
-      </c>
-      <c r="B52" t="s">
-        <v>127</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <v>44963</v>
-      </c>
-      <c r="B53" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>44963</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>44963</v>
       </c>
       <c r="B55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>44963</v>
+      </c>
+      <c r="B56" t="s">
         <v>120</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
-        <v>44959</v>
-      </c>
-      <c r="B56" t="s">
-        <v>122</v>
-      </c>
       <c r="C56" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>44959</v>
+        <v>44963</v>
       </c>
       <c r="B57" t="s">
         <v>120</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+    <row r="60" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
         <v>44958</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B60" t="s">
         <v>89</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+    <row r="61" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
         <v>44955</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B61" t="s">
         <v>117</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+    <row r="62" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
         <v>44955</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B62" t="s">
         <v>115</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+    <row r="63" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
         <v>44953</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B63" t="s">
         <v>103</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
-        <v>44953</v>
-      </c>
-      <c r="B62" t="s">
-        <v>103</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
-        <v>44952</v>
-      </c>
-      <c r="B63" t="s">
-        <v>101</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
+        <v>44953</v>
+      </c>
+      <c r="B64" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
         <v>44952</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
+        <v>101</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>44952</v>
+      </c>
+      <c r="B66" t="s">
         <v>110</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
+    <row r="67" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
         <v>44951</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B67" t="s">
         <v>108</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
-        <v>44949</v>
-      </c>
-      <c r="B66" t="s">
-        <v>89</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
-        <v>44949</v>
-      </c>
-      <c r="B67" t="s">
-        <v>103</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -3238,10 +3272,10 @@
         <v>44949</v>
       </c>
       <c r="B68" t="s">
-        <v>103</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>104</v>
+        <v>89</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3252,105 +3286,127 @@
         <v>103</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>44949</v>
       </c>
       <c r="B70" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>44944</v>
+        <v>44949</v>
       </c>
       <c r="B71" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>44944</v>
+        <v>44949</v>
       </c>
       <c r="B72" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>44944</v>
       </c>
       <c r="B73" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>44944</v>
       </c>
       <c r="B74" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>44944</v>
       </c>
       <c r="B75" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>44944</v>
       </c>
       <c r="B76" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>44944</v>
       </c>
       <c r="B77" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>44944</v>
       </c>
       <c r="B78" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B79" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B80" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>86</v>
       </c>
     </row>

--- a/Projects/model_documentation.xlsx
+++ b/Projects/model_documentation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B084CBC6-53BC-439F-AE4A-4EE867E74734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63728A0-7A91-4D8F-8804-8902785BB94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="historical_calibration" sheetId="5" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Advice notes" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="317">
   <si>
     <t>Date</t>
   </si>
@@ -1161,6 +1162,44 @@
 -&gt; wells along south side of the river tend to oversimulate still. likely because of gravel pathways. 
 ** Should run the model for all 100 realizations again to see if the flipped geology and irrigiation efficiencies make a difference in best fit.
 ** Also should test steady state period</t>
+  </si>
+  <si>
+    <t>Setting the GHB at 5 km, saw a worsened error in the test realization because there was less drawdown in the groundwater in the summer time so the bottoms weren't matched as well</t>
+  </si>
+  <si>
+    <t>For the 100 realizations I'm updating the WEL/RCH, GHB inputs. Addin the lake and EVT options in. And for the LAK package removed the extra 1/10 scaling since it was already done in seep_vka
+Also now that heads are undersimulated a little in the foothills it might make sense to remove the extra 1/15 scaling above column 120 for the seep_vka and keep the 1/4 for everywhere or even go up a little bit
+-&gt; simulation took 2 hours after adjusting seep_vka but also maybe the run-time is slower on the UCD cpu?
+-&gt; switching to 1/10 scale standard saw a slightly reduction in SOSWR. The lower wells had better fit, but upper wells ended up switching to far to the other side and ended up with too much water. May still need a slight reduction in the upper area.
+The pattern of higher recharge where the Cosumnes/Deer Ck are seems to be gone now compared to the run on the LWA laptop.</t>
+  </si>
+  <si>
+    <t>SWB</t>
+  </si>
+  <si>
+    <t>Realized that the well pumping looked weird in the late summer and found that the ETc calculator had broke when switching to a linear change in Kc. Updated this and re-ran the SWB for the gridded format. Also started working on the SWB for the field by field format for the ag and native fields which required some cleaning of the soil and CN data to line up.</t>
+  </si>
+  <si>
+    <t>Worked on a test example of using the SWB for fields and assigning fluxes to a single well location. Also updated the SWB for fields to avoid duplicates.
+After loading the new SWB results for writing the RCH/WEL input it looks like now the applied water is about twice the rate of the recharge on the cumulative sum plot.
+-&gt; the start of the MODFLOW run had higher iterations, but overall it only took 2 hr 15 min so only a little bit slower likely because of the slow start when a few stress periods took 1-2 min.
+-&gt; there is tending to be a more avg 1:1 plot but the hydrographs are in generally worse for trends because they are converse</t>
+  </si>
+  <si>
+    <t>Following the update to the regional model need to update the inputs for percolation and applied water for pumping now.
+-&gt;</t>
+  </si>
+  <si>
+    <t>Removing the 1/10 SFR scaling increased run time to 2 hr 45 min. Generally wells switched from under to overestimating and wells that were fitting switched to overestimating. It seems the stream leakage is a dominant driver along with the soil water budget. 
+-&gt; to begin I should run a sensitivity then calibration of the 4 facies HK followed by a spatially variable sfr VKA scaling term (either by segment or column block). 30 segments is too many to do individually, better to group in 3-5 subregions</t>
+  </si>
+  <si>
+    <t>Model parallel sensitivities show that the seep_vka1 parameter is the most sensitive (scaling of SFR strch1 in the foothills) (1.0), HK of Mud is the next most sensitive (0.98). Kx1-3 (gravel-sandy mud) and coarse_scale are all on the 0.1-0.2 CSS scaled level so important but not key.
+-&gt; the first calibration step decrease Kx of Mud and decreased the seep_vka1 and coarse_scale factors which would increase strhc1.
+-&gt; calibration went negative for coarse_scale while trying to reduce it. After the first adjustment the error improved but run time went to 3 hr 20 min</t>
+  </si>
+  <si>
+    <t>Decided to stop calibration to reset</t>
   </si>
 </sst>
 </file>
@@ -1510,22 +1549,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E4A244-E3B5-46CF-83BA-D24D8C870C37}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="91.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="14.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="91.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="56.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1542,532 +1581,590 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
+        <v>45153</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>45148</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>45147</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>45146</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>45141</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>45140</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+    <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>45140</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+    <row r="9" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>45138</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="144" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+    <row r="10" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>45137</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>45136</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>45100</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+    <row r="13" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>45100</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+    <row r="14" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>45084</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>45083</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>45077</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>45055</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>45054</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>45051</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+    <row r="20" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>45051</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+    <row r="21" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>45051</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+    <row r="22" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>45050</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+    <row r="23" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>45050</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" ht="216" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>45049</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>45047</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>45046</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>45046</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <v>45045</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>252</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>45049</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>45047</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>45046</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>45046</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>45045</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+    <row r="29" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <v>45044</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+    <row r="30" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <v>45044</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
+    <row r="31" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
         <v>45044</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
+    <row r="32" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
         <v>45044</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
+    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
         <v>45043</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
+    <row r="34" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
         <v>45043</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
+    <row r="35" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
         <v>45041</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
+    <row r="36" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
         <v>45029</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
+    <row r="37" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
         <v>45028</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
+    <row r="38" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
         <v>45027</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
+    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
         <v>45027</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
         <v>45026</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
+    <row r="41" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
         <v>45026</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
+    <row r="42" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
         <v>45024</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
+    <row r="43" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
         <v>45022</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
+    <row r="44" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
         <v>45022</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="5">
+    <row r="45" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
         <v>45014</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A41" s="5">
+    <row r="46" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
         <v>45013</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="5">
+    <row r="47" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
         <v>45012</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
+    <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
         <v>44867</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="5">
+    <row r="49" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
         <v>44867</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A45" s="5">
+    <row r="50" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
         <v>44866</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="5">
+    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
         <v>44725</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2084,16 +2181,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="83.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="83.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2110,7 +2207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45089</v>
       </c>
@@ -2121,7 +2218,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45084</v>
       </c>
@@ -2132,7 +2229,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45083</v>
       </c>
@@ -2146,7 +2243,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45037</v>
       </c>
@@ -2157,7 +2254,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45037</v>
       </c>
@@ -2171,7 +2268,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45033</v>
       </c>
@@ -2186,7 +2283,7 @@
         <v>3.3599999999999997E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44930</v>
       </c>
@@ -2197,7 +2294,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44930</v>
       </c>
@@ -2208,7 +2305,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44919</v>
       </c>
@@ -2219,7 +2316,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44916</v>
       </c>
@@ -2233,7 +2330,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44900</v>
       </c>
@@ -2244,7 +2341,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44900</v>
       </c>
@@ -2258,7 +2355,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44880</v>
       </c>
@@ -2269,7 +2366,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44875</v>
       </c>
@@ -2280,7 +2377,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44860</v>
       </c>
@@ -2297,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44847</v>
       </c>
@@ -2308,7 +2405,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44841</v>
       </c>
@@ -2319,7 +2416,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44831</v>
       </c>
@@ -2336,7 +2433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44826</v>
       </c>
@@ -2347,7 +2444,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44826</v>
       </c>
@@ -2358,7 +2455,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44826</v>
       </c>
@@ -2369,7 +2466,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44812</v>
       </c>
@@ -2380,7 +2477,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44777</v>
       </c>
@@ -2397,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44767</v>
       </c>
@@ -2414,7 +2511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44764</v>
       </c>
@@ -2428,7 +2525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44764</v>
       </c>
@@ -2445,7 +2542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44763</v>
       </c>
@@ -2470,21 +2567,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC7BF14-4A67-4FD5-AA17-58E63ADE83DF}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="94.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="47.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="94.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2498,40 +2595,51 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45138</v>
+        <v>45141</v>
       </c>
       <c r="B3" t="s">
         <v>135</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45125</v>
+        <v>45138</v>
       </c>
       <c r="B4" t="s">
         <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45125</v>
       </c>
       <c r="B5" t="s">
-        <v>271</v>
+        <v>135</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45125</v>
       </c>
@@ -2539,38 +2647,35 @@
         <v>271</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>45125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+    <row r="8" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>45123</v>
-      </c>
-      <c r="B7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>45118</v>
       </c>
       <c r="B8" t="s">
         <v>261</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45118</v>
       </c>
@@ -2578,60 +2683,63 @@
         <v>261</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>45050</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>45042</v>
-      </c>
-      <c r="B11" t="s">
-        <v>230</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45042</v>
       </c>
       <c r="B12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>45042</v>
+      </c>
+      <c r="B13" t="s">
         <v>228</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>45041</v>
-      </c>
-      <c r="B13" t="s">
-        <v>225</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45041</v>
       </c>
@@ -2639,24 +2747,24 @@
         <v>225</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>45041</v>
+      </c>
+      <c r="B15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>45033</v>
-      </c>
-      <c r="B15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45033</v>
       </c>
@@ -2664,82 +2772,82 @@
         <v>145</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>45033</v>
+      </c>
+      <c r="B17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>45008</v>
-      </c>
-      <c r="B17" t="s">
-        <v>191</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>45002</v>
       </c>
       <c r="B18" t="s">
         <v>191</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="B19" t="s">
         <v>191</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>45001</v>
+      </c>
+      <c r="B20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>45000</v>
-      </c>
-      <c r="B20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>44999</v>
       </c>
       <c r="B21" t="s">
         <v>188</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>44999</v>
+      </c>
+      <c r="B22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>44991</v>
-      </c>
-      <c r="B22" t="s">
-        <v>174</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44991</v>
       </c>
@@ -2747,10 +2855,10 @@
         <v>174</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44991</v>
       </c>
@@ -2758,27 +2866,24 @@
         <v>174</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="B25" t="s">
         <v>174</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44988</v>
       </c>
@@ -2786,35 +2891,35 @@
         <v>174</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>44988</v>
+      </c>
+      <c r="B27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>44985</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>179</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>44984</v>
-      </c>
-      <c r="B28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44984</v>
       </c>
@@ -2822,82 +2927,82 @@
         <v>174</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44984</v>
       </c>
       <c r="B30" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44984</v>
       </c>
       <c r="B31" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="B32" t="s">
         <v>127</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>44980</v>
+      </c>
+      <c r="B33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>44979</v>
-      </c>
-      <c r="B33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44979</v>
       </c>
       <c r="B34" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>44978</v>
+        <v>44979</v>
       </c>
       <c r="B35" t="s">
         <v>159</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44978</v>
       </c>
@@ -2905,38 +3010,41 @@
         <v>159</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>44978</v>
+      </c>
+      <c r="B37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>44977</v>
-      </c>
-      <c r="B37" t="s">
-        <v>135</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44977</v>
       </c>
       <c r="B38" t="s">
-        <v>151</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44977</v>
       </c>
@@ -2944,209 +3052,209 @@
         <v>151</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>44977</v>
+      </c>
+      <c r="B40" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+    <row r="41" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
         <v>44976</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>145</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+    <row r="42" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
         <v>44973</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>135</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>44975</v>
-      </c>
-      <c r="B42" t="s">
-        <v>145</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>44975</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>44973</v>
+        <v>44975</v>
       </c>
       <c r="B44" t="s">
         <v>89</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>44971</v>
+        <v>44973</v>
       </c>
       <c r="B45" t="s">
         <v>89</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44971</v>
       </c>
       <c r="B46" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44971</v>
       </c>
       <c r="B47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>44971</v>
+      </c>
+      <c r="B48" t="s">
         <v>135</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+    <row r="49" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
         <v>44967</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>138</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>44964</v>
-      </c>
-      <c r="B49" t="s">
-        <v>134</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>44964</v>
       </c>
       <c r="B50" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>44964</v>
       </c>
       <c r="B51" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>44964</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>44964</v>
       </c>
       <c r="B53" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>44964</v>
+      </c>
+      <c r="B54" t="s">
         <v>129</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
-        <v>44963</v>
-      </c>
-      <c r="B54" t="s">
-        <v>127</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>44963</v>
       </c>
       <c r="B55" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>44963</v>
       </c>
       <c r="B56" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>44963</v>
       </c>
@@ -3154,76 +3262,76 @@
         <v>120</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>44963</v>
+      </c>
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
-        <v>44959</v>
-      </c>
-      <c r="B58" t="s">
-        <v>122</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>44959</v>
       </c>
       <c r="B59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B60" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+    <row r="61" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
         <v>44958</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>89</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
-        <v>44955</v>
-      </c>
-      <c r="B61" t="s">
-        <v>117</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>44955</v>
       </c>
       <c r="B62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>44955</v>
+      </c>
+      <c r="B63" t="s">
         <v>115</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
-        <v>44953</v>
-      </c>
-      <c r="B63" t="s">
-        <v>103</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>44953</v>
       </c>
@@ -3231,65 +3339,65 @@
         <v>103</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>44953</v>
+      </c>
+      <c r="B65" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
-        <v>44952</v>
-      </c>
-      <c r="B65" t="s">
-        <v>101</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>44952</v>
       </c>
       <c r="B66" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>44952</v>
+      </c>
+      <c r="B67" t="s">
         <v>110</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
+    <row r="68" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
         <v>44951</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>108</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
-        <v>44949</v>
-      </c>
-      <c r="B68" t="s">
-        <v>89</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>44949</v>
       </c>
       <c r="B69" t="s">
-        <v>103</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>44949</v>
       </c>
@@ -3297,10 +3405,10 @@
         <v>103</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>44949</v>
       </c>
@@ -3308,43 +3416,43 @@
         <v>103</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>44949</v>
       </c>
       <c r="B72" t="s">
+        <v>103</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>44949</v>
+      </c>
+      <c r="B73" t="s">
         <v>101</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
-        <v>44944</v>
-      </c>
-      <c r="B73" t="s">
-        <v>99</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>44944</v>
       </c>
       <c r="B74" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>44944</v>
       </c>
@@ -3352,43 +3460,43 @@
         <v>96</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>44944</v>
       </c>
       <c r="B76" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>44944</v>
       </c>
       <c r="B77" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>44944</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>44944</v>
       </c>
@@ -3396,17 +3504,28 @@
         <v>89</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>44944</v>
       </c>
       <c r="B80" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B81" t="s">
         <v>87</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3423,14 +3542,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="86.6640625" customWidth="1"/>
-    <col min="4" max="4" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="86.7109375" customWidth="1"/>
+    <col min="4" max="4" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3444,7 +3563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45098</v>
       </c>
@@ -3456,7 +3575,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45084</v>
       </c>
@@ -3468,7 +3587,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45044</v>
       </c>
@@ -3480,7 +3599,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45044</v>
       </c>
@@ -3492,7 +3611,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45044</v>
       </c>
@@ -3504,7 +3623,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45040</v>
       </c>
@@ -3516,7 +3635,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44981</v>
       </c>
@@ -3528,7 +3647,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44981</v>
       </c>
@@ -3553,15 +3672,15 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="64.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="64.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3578,7 +3697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>45138</v>
       </c>
@@ -3591,7 +3710,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44979</v>
       </c>
@@ -3621,16 +3740,16 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3647,7 +3766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44881</v>
       </c>
@@ -3661,7 +3780,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44881</v>
       </c>
@@ -3675,7 +3794,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44792</v>
       </c>
@@ -3686,7 +3805,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44767</v>
       </c>
@@ -3703,7 +3822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44755</v>
       </c>
@@ -3720,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44755</v>
       </c>
@@ -3737,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44755</v>
       </c>
@@ -3754,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44755</v>
       </c>
@@ -3771,7 +3890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44755</v>
       </c>
@@ -3788,7 +3907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44755</v>
       </c>
@@ -3818,15 +3937,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="45.5546875" customWidth="1"/>
-    <col min="4" max="4" width="29.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3843,7 +3962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44764</v>
       </c>
@@ -3868,9 +3987,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -3878,7 +3997,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -3886,7 +4005,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>85</v>
       </c>

--- a/Projects/model_documentation.xlsx
+++ b/Projects/model_documentation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63728A0-7A91-4D8F-8804-8902785BB94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28F6C7E-5FD2-4F9E-8BAA-385F144CA14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="historical_calibration" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Advice notes" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="327">
   <si>
     <t>Date</t>
   </si>
@@ -1135,9 +1134,6 @@
     <t>Geology</t>
   </si>
   <si>
-    <t xml:space="preserve">After Alisha was concerned about the loading of the geology into flopy we reviewed the shaping of the array and found that we needed to add a flip along the x-axis to make sure the output geology array was correctly oriented. </t>
-  </si>
-  <si>
     <t>To the southeast the contours are consistently perpendicular to the model edge at about 5 km in line with Galt. 
 It takes 20 km upstream to find the consistent gradient in the upper Cosumnes and be out of the pumping depression. 
 To the northwest the contours are regular 10 km away, toward the Sacramento river area.
@@ -1200,6 +1196,44 @@
   </si>
   <si>
     <t>Decided to stop calibration to reset</t>
+  </si>
+  <si>
+    <t>Need to rerun local model and regional and might as well re-run setback distance</t>
+  </si>
+  <si>
+    <t>When reviewing the levee setback distance results for odd recharge peaks, I found that the flip along the y and z axis weren't actually applied because they renamed to a different variable that wasn't saved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After Alisha was concerned about the loading of the geology into flopy we reviewed the shaping of the array and found that we needed to add a flip along the y-axis to make sure the output geology array was correctly oriented. </t>
+  </si>
+  <si>
+    <t>soilK</t>
+  </si>
+  <si>
+    <t>Started rewriting the input for the local model and started the rerun</t>
+  </si>
+  <si>
+    <t>When looking back to investigate spots of high recharge I noticed that much of the soilK maps had low conductivity cells and it appears that the soilK maps don't necessarily align with the elevations of the DEM mean instead of linear.
+- what's weird is the old soilK data almost look like they were just sliced from a layer because the HCP units look clean and not choppy in the foothills where there is more elevation variability. Also some of the cells in the foothills shouldn't have had data where the DEM would be above the top of the geology model and yet the old soilK had data there.
+-&gt; After rerunning the soil maps, now the soil_K is dominantly sand/gravel with patches on the edges of lower conductivity which is what I would expect.</t>
+  </si>
+  <si>
+    <t>Flow depth</t>
+  </si>
+  <si>
+    <t>Verified that the old geology had a mean conditioning data layer of 100 which is about 30 m amsl and with the proper flip the mean layer is 211 which is about -20 m amsl which means the models should all be re-run…
+-&gt; flipping the tprogs model tended to shift the mean NSE upward from .39 to .45 and the RMSE from 2.28 to 2.15
+-&gt;the water budget plots showed that everything remained consistent except SFR_OUT was scale by about half and saw fewer peaks.</t>
+  </si>
+  <si>
+    <t>After fixing soil_K I wanted to check the impact of adjusting the depth constraint for activation which was any depth greater than land surface. The mean depth across time and space for the large and long event was 0.3m with a min at 1E-6. A threshold at 0.1m might be too aggressive toward the mean but 0.01m would prevent recharge occuring due to very small depths that would be negligible.
+-&gt; adding a 10 cm (0.1 m) threshold only decreased total recharge at 1200 m for large and long from 216 to 210 MCM, and the plot trends were the same by setback distance.</t>
+  </si>
+  <si>
+    <t>With just the udpate to soil_K the total recharge for a setback was similar to the previous plots of recharge vs setback</t>
+  </si>
+  <si>
+    <t>Rerun all realizations and replot with expectation of minimal change in larger trends. -&gt; in parallel only took 148 min (had divide by zero error but I think that’s from checking dry cells)</t>
   </si>
 </sst>
 </file>
@@ -1551,7 +1585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E4A244-E3B5-46CF-83BA-D24D8C870C37}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1589,10 +1623,10 @@
         <v>259</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -1603,7 +1637,7 @@
         <v>261</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -1614,7 +1648,7 @@
         <v>117</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1622,10 +1656,10 @@
         <v>45146</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="180" x14ac:dyDescent="0.25">
@@ -1636,7 +1670,7 @@
         <v>127</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -1644,10 +1678,10 @@
         <v>45140</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -1658,7 +1692,7 @@
         <v>298</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -1669,7 +1703,7 @@
         <v>135</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="165" x14ac:dyDescent="0.25">
@@ -2175,10 +2209,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2209,253 +2243,259 @@
     </row>
     <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
+        <v>45169</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>45168</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>45089</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>45084</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>45083</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>45037</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>45037</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>220</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
+        <v>45037</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>45037</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>45033</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G7">
+      <c r="G9">
         <f>(0.00014)*24/100</f>
         <v>3.3599999999999997E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>44930</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>44930</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>44919</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>44916</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>44900</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
+        <v>44916</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>44900</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>44880</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>44900</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>44880</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>44875</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>44860</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
+        <v>44875</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>44860</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>44847</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>44841</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>44831</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E19">
+      <c r="E21">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>44826</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>44826</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44826</v>
       </c>
@@ -2463,63 +2503,54 @@
         <v>42</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>44812</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>44777</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>44767</v>
+        <v>44812</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>44764</v>
+        <v>44777</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2527,35 +2558,66 @@
     </row>
     <row r="27" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>44764</v>
+        <v>44767</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
+        <v>44764</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>44764</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>44763</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E28">
+      <c r="E30">
         <v>1</v>
       </c>
     </row>
@@ -2567,10 +2629,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC7BF14-4A67-4FD5-AA17-58E63ADE83DF}">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2595,62 +2657,62 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
+        <v>45168</v>
+      </c>
+      <c r="B2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>45146</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>298</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="C3" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>45141</v>
-      </c>
-      <c r="B3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>45138</v>
       </c>
       <c r="B4" t="s">
         <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45125</v>
+        <v>45138</v>
       </c>
       <c r="B5" t="s">
         <v>135</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45125</v>
       </c>
       <c r="B6" t="s">
-        <v>271</v>
+        <v>135</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45125</v>
       </c>
@@ -2658,38 +2720,35 @@
         <v>271</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>45125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>45123</v>
-      </c>
-      <c r="B8" t="s">
-        <v>261</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45118</v>
+        <v>45123</v>
       </c>
       <c r="B9" t="s">
         <v>261</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45118</v>
       </c>
@@ -2697,60 +2756,63 @@
         <v>261</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>45050</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>45042</v>
-      </c>
-      <c r="B12" t="s">
-        <v>230</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45042</v>
       </c>
       <c r="B13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>45042</v>
+      </c>
+      <c r="B14" t="s">
         <v>228</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>45041</v>
-      </c>
-      <c r="B14" t="s">
-        <v>225</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45041</v>
       </c>
@@ -2758,24 +2820,24 @@
         <v>225</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>45041</v>
+      </c>
+      <c r="B16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>45033</v>
-      </c>
-      <c r="B16" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45033</v>
       </c>
@@ -2783,82 +2845,82 @@
         <v>145</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>45033</v>
+      </c>
+      <c r="B18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>45008</v>
-      </c>
-      <c r="B18" t="s">
-        <v>191</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>45002</v>
       </c>
       <c r="B19" t="s">
         <v>191</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="B20" t="s">
         <v>191</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>45001</v>
+      </c>
+      <c r="B21" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>45000</v>
-      </c>
-      <c r="B21" t="s">
-        <v>188</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>44999</v>
       </c>
       <c r="B22" t="s">
         <v>188</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>44999</v>
+      </c>
+      <c r="B23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>44991</v>
-      </c>
-      <c r="B23" t="s">
-        <v>174</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44991</v>
       </c>
@@ -2866,10 +2928,10 @@
         <v>174</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44991</v>
       </c>
@@ -2877,27 +2939,24 @@
         <v>174</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="B26" t="s">
         <v>174</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44988</v>
       </c>
@@ -2905,35 +2964,35 @@
         <v>174</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>44988</v>
+      </c>
+      <c r="B28" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>44985</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>179</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>44984</v>
-      </c>
-      <c r="B29" t="s">
-        <v>174</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44984</v>
       </c>
@@ -2941,82 +3000,82 @@
         <v>174</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44984</v>
       </c>
       <c r="B31" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44984</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="B33" t="s">
         <v>127</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>44980</v>
+      </c>
+      <c r="B34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>44979</v>
-      </c>
-      <c r="B34" t="s">
-        <v>135</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44979</v>
       </c>
       <c r="B35" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>44978</v>
+        <v>44979</v>
       </c>
       <c r="B36" t="s">
         <v>159</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44978</v>
       </c>
@@ -3024,38 +3083,41 @@
         <v>159</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>44978</v>
+      </c>
+      <c r="B38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>44977</v>
-      </c>
-      <c r="B38" t="s">
-        <v>135</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44977</v>
       </c>
       <c r="B39" t="s">
-        <v>151</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44977</v>
       </c>
@@ -3063,209 +3125,209 @@
         <v>151</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>44977</v>
+      </c>
+      <c r="B41" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+    <row r="42" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
         <v>44976</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+    <row r="43" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
         <v>44973</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>135</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>44975</v>
-      </c>
-      <c r="B43" t="s">
-        <v>145</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>44975</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>44973</v>
+        <v>44975</v>
       </c>
       <c r="B45" t="s">
         <v>89</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>44971</v>
+        <v>44973</v>
       </c>
       <c r="B46" t="s">
         <v>89</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44971</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>44971</v>
       </c>
       <c r="B48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>44971</v>
+      </c>
+      <c r="B49" t="s">
         <v>135</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="300" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+    <row r="50" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
         <v>44967</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>138</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>44964</v>
-      </c>
-      <c r="B50" t="s">
-        <v>134</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>44964</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>44964</v>
       </c>
       <c r="B52" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>44964</v>
       </c>
       <c r="B53" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>44964</v>
       </c>
       <c r="B54" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>44964</v>
+      </c>
+      <c r="B55" t="s">
         <v>129</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>44963</v>
-      </c>
-      <c r="B55" t="s">
-        <v>127</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>44963</v>
       </c>
       <c r="B56" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>44963</v>
       </c>
       <c r="B57" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>44963</v>
       </c>
@@ -3273,76 +3335,76 @@
         <v>120</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>44963</v>
+      </c>
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>44959</v>
-      </c>
-      <c r="B59" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>44959</v>
       </c>
       <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B61" t="s">
         <v>120</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>44958</v>
-      </c>
-      <c r="B61" t="s">
-        <v>89</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>44955</v>
+        <v>44958</v>
       </c>
       <c r="B62" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>44955</v>
       </c>
       <c r="B63" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>44955</v>
+      </c>
+      <c r="B64" t="s">
         <v>115</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>44953</v>
-      </c>
-      <c r="B64" t="s">
-        <v>103</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>44953</v>
       </c>
@@ -3350,65 +3412,65 @@
         <v>103</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>44952</v>
+        <v>44953</v>
       </c>
       <c r="B66" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>44952</v>
       </c>
       <c r="B67" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>44952</v>
+      </c>
+      <c r="B68" t="s">
         <v>110</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
+    <row r="69" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
         <v>44951</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>108</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>44949</v>
-      </c>
-      <c r="B69" t="s">
-        <v>89</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>44949</v>
       </c>
       <c r="B70" t="s">
-        <v>103</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>44949</v>
       </c>
@@ -3416,10 +3478,10 @@
         <v>103</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>44949</v>
       </c>
@@ -3427,7 +3489,7 @@
         <v>103</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3435,35 +3497,35 @@
         <v>44949</v>
       </c>
       <c r="B73" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>44949</v>
+      </c>
+      <c r="B74" t="s">
         <v>101</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>44944</v>
-      </c>
-      <c r="B74" t="s">
-        <v>99</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>44944</v>
       </c>
       <c r="B75" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>44944</v>
       </c>
@@ -3471,43 +3533,43 @@
         <v>96</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>44944</v>
       </c>
       <c r="B77" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>44944</v>
       </c>
       <c r="B78" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>44944</v>
       </c>
       <c r="B79" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>44944</v>
       </c>
@@ -3515,17 +3577,28 @@
         <v>89</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>44944</v>
       </c>
       <c r="B81" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B82" t="s">
         <v>87</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3666,10 +3739,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D471C2-6142-4E20-AF98-9F82EA310400}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3697,33 +3770,61 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>45138</v>
+        <v>45168</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>301</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="5">
+        <v>45168</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>45138</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>44979</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D5" t="s">
         <v>169</v>
       </c>
-      <c r="E3">
+      <c r="E5">
         <v>1</v>
       </c>
     </row>

--- a/Projects/model_documentation.xlsx
+++ b/Projects/model_documentation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28F6C7E-5FD2-4F9E-8BAA-385F144CA14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74A65BD-8642-4188-A5C7-400072F582C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="historical_calibration" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="329">
   <si>
     <t>Date</t>
   </si>
@@ -1234,6 +1234,13 @@
   </si>
   <si>
     <t>Rerun all realizations and replot with expectation of minimal change in larger trends. -&gt; in parallel only took 148 min (had divide by zero error but I think that’s from checking dry cells)</t>
+  </si>
+  <si>
+    <t>Cell fraction</t>
+  </si>
+  <si>
+    <t>When plotting the cell fraction I realized there were spots &gt;1 which isn't physical. I traced it back to the inter quantile calculation which had an error where when the WSE was greater than the top WSE it was calculating a fraction much greater than 1. I corrected this and started the re-run.
+-&gt; after update the recharge results were reduced on the high end so the flier on the maximum was outside the quartile. Also the effective recharge became less valuable at 1200m such that 0-600m are most valuable with 0,200 m gone then it is 600 followed by 1200 m.</t>
   </si>
 </sst>
 </file>
@@ -2209,10 +2216,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2241,166 +2248,166 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>45169</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="4" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>45168</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>45089</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>45084</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>45083</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>45037</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45037</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>45037</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="10" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>45033</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <f>(0.00014)*24/100</f>
         <v>3.3599999999999997E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>44930</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44930</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>44930</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>44919</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>44916</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>44900</v>
+        <v>44916</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -2408,105 +2415,105 @@
         <v>44900</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>44900</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="17" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>44880</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>44875</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>44860</v>
+        <v>44875</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>44847</v>
+        <v>44860</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>44847</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="21" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>44841</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>44831</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>44826</v>
+        <v>44831</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44826</v>
       </c>
@@ -2514,10 +2521,10 @@
         <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44826</v>
       </c>
@@ -2525,99 +2532,110 @@
         <v>42</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>44812</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="27" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>44777</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>44767</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>44764</v>
+        <v>44767</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44764</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
+        <v>44764</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>44763</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <v>1</v>
       </c>
     </row>

--- a/Projects/model_documentation.xlsx
+++ b/Projects/model_documentation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28F6C7E-5FD2-4F9E-8BAA-385F144CA14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4233B100-F939-4555-A4E4-40E4B5D8C80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="historical_calibration" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="330">
   <si>
     <t>Date</t>
   </si>
@@ -1234,6 +1234,17 @@
   </si>
   <si>
     <t>Rerun all realizations and replot with expectation of minimal change in larger trends. -&gt; in parallel only took 148 min (had divide by zero error but I think that’s from checking dry cells)</t>
+  </si>
+  <si>
+    <t>HOB fit</t>
+  </si>
+  <si>
+    <t>With the final round of updates, we see that MW_19 over simulates drawdown in the summer while MW17 matches more closely and these wells are directly on opposite sides of the rivers. In MODFLOW there is likely enough connectivity that they see similar heads, but the difference might be developed if the GDE mapping was adjusted. Decreasing extinction depth from 10 m to 8m didn't show a noticeable impact on HOB fit for some reason. 
+-&gt; I continued by decreasing the ext_dp for woodlan to 6m (forest still at 8m) and didn't see a head fit change. The mean ET out did decline from 124k to 104k to 76k m3/day with SFR in declining with similar amounts (177k, 165k, 147k) to account for the change with like storage impacts as well. (I had been loading the wrong hob output)
+-&gt; I updated the hob path read and the model fit greatly improved (from the starting point NSE went from 0.51 to .65 and RMSE from 2.0 to 1.7 m)</t>
+  </si>
+  <si>
+    <t>Test a slight further decline in ext_dp then proceed (woodland 5 m with forest at 8 m, and riparian scrub at 3 m, slightly improved fit, best to test across all 100 next)</t>
   </si>
 </sst>
 </file>
@@ -1589,16 +1600,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="91.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="56.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="14.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="91.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1615,7 +1626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>45153</v>
       </c>
@@ -1629,7 +1640,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>45148</v>
       </c>
@@ -1640,7 +1651,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>45147</v>
       </c>
@@ -1651,7 +1662,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>45146</v>
       </c>
@@ -1662,7 +1673,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>45141</v>
       </c>
@@ -1673,7 +1684,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>45140</v>
       </c>
@@ -1684,7 +1695,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>45140</v>
       </c>
@@ -1695,7 +1706,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>45138</v>
       </c>
@@ -1706,7 +1717,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>45137</v>
       </c>
@@ -1717,7 +1728,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>45136</v>
       </c>
@@ -1728,7 +1739,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>45100</v>
       </c>
@@ -1739,7 +1750,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>45100</v>
       </c>
@@ -1750,7 +1761,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>45084</v>
       </c>
@@ -1764,7 +1775,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>45083</v>
       </c>
@@ -1778,7 +1789,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>45077</v>
       </c>
@@ -1789,7 +1800,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>45055</v>
       </c>
@@ -1800,7 +1811,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>45054</v>
       </c>
@@ -1814,7 +1825,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>45051</v>
       </c>
@@ -1825,7 +1836,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>45051</v>
       </c>
@@ -1839,7 +1850,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>45051</v>
       </c>
@@ -1850,7 +1861,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>45050</v>
       </c>
@@ -1861,7 +1872,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>45050</v>
       </c>
@@ -1873,7 +1884,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="216" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>45049</v>
       </c>
@@ -1884,7 +1895,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>45047</v>
       </c>
@@ -1895,7 +1906,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>45046</v>
       </c>
@@ -1909,7 +1920,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>45046</v>
       </c>
@@ -1920,7 +1931,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>45045</v>
       </c>
@@ -1934,7 +1945,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>45044</v>
       </c>
@@ -1945,7 +1956,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>45044</v>
       </c>
@@ -1956,7 +1967,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>45044</v>
       </c>
@@ -1970,7 +1981,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>45044</v>
       </c>
@@ -1984,7 +1995,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>45043</v>
       </c>
@@ -1998,7 +2009,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>45043</v>
       </c>
@@ -2009,7 +2020,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>45041</v>
       </c>
@@ -2020,7 +2031,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>45029</v>
       </c>
@@ -2031,7 +2042,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>45028</v>
       </c>
@@ -2042,7 +2053,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>45027</v>
       </c>
@@ -2053,7 +2064,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>45027</v>
       </c>
@@ -2064,7 +2075,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>45026</v>
       </c>
@@ -2075,7 +2086,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>45026</v>
       </c>
@@ -2086,7 +2097,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>45024</v>
       </c>
@@ -2097,7 +2108,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>45022</v>
       </c>
@@ -2108,7 +2119,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>45022</v>
       </c>
@@ -2119,7 +2130,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>45014</v>
       </c>
@@ -2130,7 +2141,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>45013</v>
       </c>
@@ -2141,7 +2152,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>45012</v>
       </c>
@@ -2152,7 +2163,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>44867</v>
       </c>
@@ -2163,7 +2174,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>44867</v>
       </c>
@@ -2177,7 +2188,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>44866</v>
       </c>
@@ -2191,7 +2202,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>44725</v>
       </c>
@@ -2211,20 +2222,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="83.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="83.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2241,7 +2252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45169</v>
       </c>
@@ -2255,7 +2266,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45168</v>
       </c>
@@ -2269,7 +2280,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45089</v>
       </c>
@@ -2280,7 +2291,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45084</v>
       </c>
@@ -2291,7 +2302,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45083</v>
       </c>
@@ -2305,7 +2316,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45037</v>
       </c>
@@ -2316,7 +2327,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>45037</v>
       </c>
@@ -2330,7 +2341,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>45033</v>
       </c>
@@ -2345,7 +2356,7 @@
         <v>3.3599999999999997E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44930</v>
       </c>
@@ -2356,7 +2367,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44930</v>
       </c>
@@ -2367,7 +2378,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44919</v>
       </c>
@@ -2378,7 +2389,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44916</v>
       </c>
@@ -2392,7 +2403,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44900</v>
       </c>
@@ -2403,7 +2414,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44900</v>
       </c>
@@ -2417,7 +2428,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44880</v>
       </c>
@@ -2428,7 +2439,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44875</v>
       </c>
@@ -2439,7 +2450,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44860</v>
       </c>
@@ -2456,7 +2467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44847</v>
       </c>
@@ -2467,7 +2478,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44841</v>
       </c>
@@ -2478,7 +2489,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44831</v>
       </c>
@@ -2495,7 +2506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44826</v>
       </c>
@@ -2506,7 +2517,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>44826</v>
       </c>
@@ -2517,7 +2528,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>44826</v>
       </c>
@@ -2528,7 +2539,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>44812</v>
       </c>
@@ -2539,7 +2550,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>44777</v>
       </c>
@@ -2556,7 +2567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>44767</v>
       </c>
@@ -2573,7 +2584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>44764</v>
       </c>
@@ -2587,7 +2598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>44764</v>
       </c>
@@ -2604,7 +2615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>44763</v>
       </c>
@@ -2629,21 +2640,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC7BF14-4A67-4FD5-AA17-58E63ADE83DF}">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="94.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="94.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2657,73 +2668,76 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
+        <v>45183</v>
+      </c>
+      <c r="B2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>45168</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>301</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>45146</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>45141</v>
-      </c>
-      <c r="B4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>45138</v>
       </c>
       <c r="B5" t="s">
         <v>135</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>45125</v>
+        <v>45138</v>
       </c>
       <c r="B6" t="s">
         <v>135</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45125</v>
       </c>
       <c r="B7" t="s">
-        <v>271</v>
+        <v>135</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>45125</v>
       </c>
@@ -2731,38 +2745,35 @@
         <v>271</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>45125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="10" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>45123</v>
-      </c>
-      <c r="B9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>45118</v>
       </c>
       <c r="B10" t="s">
         <v>261</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>45118</v>
       </c>
@@ -2770,60 +2781,63 @@
         <v>261</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="13" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>45050</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>45042</v>
-      </c>
-      <c r="B13" t="s">
-        <v>230</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>45042</v>
       </c>
       <c r="B14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>45042</v>
+      </c>
+      <c r="B15" t="s">
         <v>228</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>45041</v>
-      </c>
-      <c r="B15" t="s">
-        <v>225</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>45041</v>
       </c>
@@ -2831,24 +2845,24 @@
         <v>225</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>45041</v>
+      </c>
+      <c r="B17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>45033</v>
-      </c>
-      <c r="B17" t="s">
-        <v>145</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>45033</v>
       </c>
@@ -2856,82 +2870,82 @@
         <v>145</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>45033</v>
+      </c>
+      <c r="B19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>45008</v>
-      </c>
-      <c r="B19" t="s">
-        <v>191</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>45002</v>
       </c>
       <c r="B20" t="s">
         <v>191</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="B21" t="s">
         <v>191</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>45001</v>
+      </c>
+      <c r="B22" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="23" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>45000</v>
-      </c>
-      <c r="B22" t="s">
-        <v>188</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>44999</v>
       </c>
       <c r="B23" t="s">
         <v>188</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>44999</v>
+      </c>
+      <c r="B24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>44991</v>
-      </c>
-      <c r="B24" t="s">
-        <v>174</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>44991</v>
       </c>
@@ -2939,10 +2953,10 @@
         <v>174</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>44991</v>
       </c>
@@ -2950,27 +2964,24 @@
         <v>174</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="B27" t="s">
         <v>174</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>44988</v>
       </c>
@@ -2978,35 +2989,35 @@
         <v>174</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>44988</v>
+      </c>
+      <c r="B29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="30" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>44985</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>179</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>44984</v>
-      </c>
-      <c r="B30" t="s">
-        <v>174</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>44984</v>
       </c>
@@ -3014,82 +3025,82 @@
         <v>174</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>44984</v>
       </c>
       <c r="B32" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>44984</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="B34" t="s">
         <v>127</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>44980</v>
+      </c>
+      <c r="B35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>44979</v>
-      </c>
-      <c r="B35" t="s">
-        <v>135</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>44979</v>
       </c>
       <c r="B36" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>44978</v>
+        <v>44979</v>
       </c>
       <c r="B37" t="s">
         <v>159</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>44978</v>
       </c>
@@ -3097,38 +3108,41 @@
         <v>159</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>44978</v>
+      </c>
+      <c r="B39" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>44977</v>
-      </c>
-      <c r="B39" t="s">
-        <v>135</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>44977</v>
       </c>
       <c r="B40" t="s">
-        <v>151</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>44977</v>
       </c>
@@ -3136,209 +3150,209 @@
         <v>151</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>44977</v>
+      </c>
+      <c r="B42" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+    <row r="43" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
         <v>44976</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>145</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+    <row r="44" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
         <v>44973</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>135</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>44975</v>
-      </c>
-      <c r="B44" t="s">
-        <v>145</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44975</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>44973</v>
+        <v>44975</v>
       </c>
       <c r="B46" t="s">
         <v>89</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>44971</v>
+        <v>44973</v>
       </c>
       <c r="B47" t="s">
         <v>89</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>44971</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>44971</v>
       </c>
       <c r="B49" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>44971</v>
+      </c>
+      <c r="B50" t="s">
         <v>135</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="300" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+    <row r="51" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
         <v>44967</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>138</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>44964</v>
-      </c>
-      <c r="B51" t="s">
-        <v>134</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>44964</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>44964</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>44964</v>
       </c>
       <c r="B54" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>44964</v>
       </c>
       <c r="B55" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>44964</v>
+      </c>
+      <c r="B56" t="s">
         <v>129</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>44963</v>
-      </c>
-      <c r="B56" t="s">
-        <v>127</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>44963</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>44963</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>44963</v>
       </c>
@@ -3346,76 +3360,76 @@
         <v>120</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>44963</v>
+      </c>
+      <c r="B60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>44959</v>
-      </c>
-      <c r="B60" t="s">
-        <v>122</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>44959</v>
       </c>
       <c r="B61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B62" t="s">
         <v>120</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+    <row r="63" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
         <v>44958</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>89</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>44955</v>
-      </c>
-      <c r="B63" t="s">
-        <v>117</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>44955</v>
       </c>
       <c r="B64" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>44955</v>
+      </c>
+      <c r="B65" t="s">
         <v>115</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>44953</v>
-      </c>
-      <c r="B65" t="s">
-        <v>103</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>44953</v>
       </c>
@@ -3423,65 +3437,65 @@
         <v>103</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>44953</v>
+      </c>
+      <c r="B67" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>44952</v>
-      </c>
-      <c r="B67" t="s">
-        <v>101</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>44952</v>
       </c>
       <c r="B68" t="s">
+        <v>101</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>44952</v>
+      </c>
+      <c r="B69" t="s">
         <v>110</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
+    <row r="70" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
         <v>44951</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>108</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>44949</v>
-      </c>
-      <c r="B70" t="s">
-        <v>89</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>44949</v>
       </c>
       <c r="B71" t="s">
-        <v>103</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>44949</v>
       </c>
@@ -3489,10 +3503,10 @@
         <v>103</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>44949</v>
       </c>
@@ -3500,43 +3514,43 @@
         <v>103</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>44949</v>
       </c>
       <c r="B74" t="s">
+        <v>103</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>44949</v>
+      </c>
+      <c r="B75" t="s">
         <v>101</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>44944</v>
-      </c>
-      <c r="B75" t="s">
-        <v>99</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>44944</v>
       </c>
       <c r="B76" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>44944</v>
       </c>
@@ -3544,43 +3558,43 @@
         <v>96</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>44944</v>
       </c>
       <c r="B78" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>44944</v>
       </c>
       <c r="B79" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>44944</v>
       </c>
       <c r="B80" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>44944</v>
       </c>
@@ -3588,17 +3602,28 @@
         <v>89</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>44944</v>
       </c>
       <c r="B82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B83" t="s">
         <v>87</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3615,14 +3640,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="86.7109375" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="86.6640625" customWidth="1"/>
+    <col min="4" max="4" width="43.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3636,7 +3661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45098</v>
       </c>
@@ -3648,7 +3673,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45084</v>
       </c>
@@ -3660,7 +3685,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45044</v>
       </c>
@@ -3672,7 +3697,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45044</v>
       </c>
@@ -3684,7 +3709,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45044</v>
       </c>
@@ -3696,7 +3721,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45040</v>
       </c>
@@ -3708,7 +3733,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44981</v>
       </c>
@@ -3720,7 +3745,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44981</v>
       </c>
@@ -3745,15 +3770,15 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="64.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="64.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3770,7 +3795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>45168</v>
       </c>
@@ -3783,7 +3808,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>45168</v>
       </c>
@@ -3798,7 +3823,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>45138</v>
       </c>
@@ -3811,7 +3836,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44979</v>
       </c>
@@ -3841,16 +3866,16 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3867,7 +3892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44881</v>
       </c>
@@ -3881,7 +3906,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44881</v>
       </c>
@@ -3895,7 +3920,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44792</v>
       </c>
@@ -3906,7 +3931,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44767</v>
       </c>
@@ -3923,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44755</v>
       </c>
@@ -3940,7 +3965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44755</v>
       </c>
@@ -3957,7 +3982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44755</v>
       </c>
@@ -3974,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44755</v>
       </c>
@@ -3991,7 +4016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44755</v>
       </c>
@@ -4008,7 +4033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44755</v>
       </c>
@@ -4038,15 +4063,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="45.5546875" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4063,7 +4088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44764</v>
       </c>
@@ -4088,9 +4113,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -4098,7 +4123,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -4106,7 +4131,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>85</v>
       </c>
